--- a/Downscaleddata/pdfs/surface thetao_pdf.xlsx
+++ b/Downscaleddata/pdfs/surface thetao_pdf.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.364637792364744</v>
+        <v>4.468344212357029</v>
       </c>
       <c r="C2" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>5.375046935634352</v>
+        <v>4.109822934763434</v>
       </c>
       <c r="E2" t="n">
-        <v>5.411145823121859e-05</v>
+        <v>6.53646605825183e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>5.375046935634352</v>
+        <v>4.109822934763434</v>
       </c>
       <c r="G2" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>4.364637792364744</v>
+        <v>4.468344212357029</v>
       </c>
       <c r="I2" t="n">
-        <v>5.088052895141044e-05</v>
+        <v>7.306077630309389e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.364637792364744</v>
+        <v>4.468344212357029</v>
       </c>
       <c r="K2" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.451133345764512</v>
+        <v>4.567866842475214</v>
       </c>
       <c r="C3" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>5.447558103269233</v>
+        <v>4.200003059855575</v>
       </c>
       <c r="E3" t="n">
-        <v>6.030581451994437e-05</v>
+        <v>6.914695511003906e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>5.447558103269233</v>
+        <v>4.200003059855575</v>
       </c>
       <c r="G3" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>4.451133345764512</v>
+        <v>4.567866842475214</v>
       </c>
       <c r="I3" t="n">
-        <v>5.352720082486054e-05</v>
+        <v>7.578648188749082e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.451133345764512</v>
+        <v>4.567866842475214</v>
       </c>
       <c r="K3" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.53762889916428</v>
+        <v>4.667389472593398</v>
       </c>
       <c r="C4" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>5.520069270904115</v>
+        <v>4.290183184947717</v>
       </c>
       <c r="E4" t="n">
-        <v>7.079045826937581e-05</v>
+        <v>7.449713025382963e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>5.520069270904115</v>
+        <v>4.290183184947717</v>
       </c>
       <c r="G4" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>4.53762889916428</v>
+        <v>4.667389472593398</v>
       </c>
       <c r="I4" t="n">
-        <v>5.735227346195019e-05</v>
+        <v>7.983578901567511e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.53762889916428</v>
+        <v>4.667389472593398</v>
       </c>
       <c r="K4" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.624124452564048</v>
+        <v>4.766912102711582</v>
       </c>
       <c r="C5" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>5.592580438538995</v>
+        <v>4.380363310039858</v>
       </c>
       <c r="E5" t="n">
-        <v>8.662915156505482e-05</v>
+        <v>8.219617927173404e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>5.592580438538995</v>
+        <v>4.380363310039858</v>
       </c>
       <c r="G5" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>4.624124452564048</v>
+        <v>4.766912102711582</v>
       </c>
       <c r="I5" t="n">
-        <v>6.283448704171675e-05</v>
+        <v>8.575483075413574e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.624124452564048</v>
+        <v>4.766912102711582</v>
       </c>
       <c r="K5" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.710620005963815</v>
+        <v>4.866434732829767</v>
       </c>
       <c r="C6" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>5.665091606173876</v>
+        <v>4.470543435131999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001087310113162513</v>
+        <v>9.479020164118284e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>5.665091606173876</v>
+        <v>4.470543435131999</v>
       </c>
       <c r="G6" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>4.710620005963815</v>
+        <v>4.866434732829767</v>
       </c>
       <c r="I6" t="n">
-        <v>7.07715929892752e-05</v>
+        <v>9.554608875471209e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.710620005963815</v>
+        <v>4.866434732829767</v>
       </c>
       <c r="K6" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.797115559363583</v>
+        <v>4.965957362947951</v>
       </c>
       <c r="C7" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>5.737602773808756</v>
+        <v>4.56072356022414</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001392795495262283</v>
+        <v>0.0001123126216074097</v>
       </c>
       <c r="F7" t="n">
-        <v>5.737602773808756</v>
+        <v>4.56072356022414</v>
       </c>
       <c r="G7" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>4.797115559363583</v>
+        <v>4.965957362947951</v>
       </c>
       <c r="I7" t="n">
-        <v>8.1428873020171e-05</v>
+        <v>0.0001148125060877059</v>
       </c>
       <c r="J7" t="n">
-        <v>4.797115559363583</v>
+        <v>4.965957362947951</v>
       </c>
       <c r="K7" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.883611112763351</v>
+        <v>5.065479993066136</v>
       </c>
       <c r="C8" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>5.810113941443638</v>
+        <v>4.650903685316282</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001808160673057979</v>
+        <v>0.0001366506518147427</v>
       </c>
       <c r="F8" t="n">
-        <v>5.810113941443638</v>
+        <v>4.650903685316282</v>
       </c>
       <c r="G8" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>4.883611112763351</v>
+        <v>5.065479993066136</v>
       </c>
       <c r="I8" t="n">
-        <v>9.575816846356344e-05</v>
+        <v>0.0001496572140325188</v>
       </c>
       <c r="J8" t="n">
-        <v>4.883611112763351</v>
+        <v>5.065479993066136</v>
       </c>
       <c r="K8" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.970106666163119</v>
+        <v>5.16500262318432</v>
       </c>
       <c r="C9" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>5.882625109078519</v>
+        <v>4.741083810408423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002419735287753035</v>
+        <v>0.0001683326695514875</v>
       </c>
       <c r="F9" t="n">
-        <v>5.882625109078519</v>
+        <v>4.741083810408423</v>
       </c>
       <c r="G9" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>4.970106666163119</v>
+        <v>5.16500262318432</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001145579809840904</v>
+        <v>0.0002002144619615821</v>
       </c>
       <c r="J9" t="n">
-        <v>4.970106666163119</v>
+        <v>5.16500262318432</v>
       </c>
       <c r="K9" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.056602219562887</v>
+        <v>5.264525253302504</v>
       </c>
       <c r="C10" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>5.955136276713399</v>
+        <v>4.831263935500564</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003293357752232378</v>
+        <v>0.0002095805449039626</v>
       </c>
       <c r="F10" t="n">
-        <v>5.955136276713399</v>
+        <v>4.831263935500564</v>
       </c>
       <c r="G10" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>5.056602219562887</v>
+        <v>5.264525253302504</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001379531994870754</v>
+        <v>0.0002765865916457785</v>
       </c>
       <c r="J10" t="n">
-        <v>5.056602219562887</v>
+        <v>5.264525253302504</v>
       </c>
       <c r="K10" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.143097772962655</v>
+        <v>5.364047883420689</v>
       </c>
       <c r="C11" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>6.027647444348281</v>
+        <v>4.921444060592705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004429385288479651</v>
+        <v>0.0002675713659209396</v>
       </c>
       <c r="F11" t="n">
-        <v>6.027647444348281</v>
+        <v>4.921444060592705</v>
       </c>
       <c r="G11" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.100251629124843e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>5.143097772962655</v>
+        <v>5.364047883420689</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001671028534361211</v>
+        <v>0.0003870864393899641</v>
       </c>
       <c r="J11" t="n">
-        <v>5.143097772962655</v>
+        <v>5.364047883420689</v>
       </c>
       <c r="K11" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.229593326362423</v>
+        <v>5.463570513538873</v>
       </c>
       <c r="C12" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>6.100158611983161</v>
+        <v>5.011624185684846</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005914676139677898</v>
+        <v>0.0003417107061168418</v>
       </c>
       <c r="F12" t="n">
-        <v>6.100158611983161</v>
+        <v>5.011624185684846</v>
       </c>
       <c r="G12" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.207935540658565e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>5.229593326362423</v>
+        <v>5.463570513538873</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002018426880233792</v>
+        <v>0.0005353664142362704</v>
       </c>
       <c r="J12" t="n">
-        <v>5.229593326362423</v>
+        <v>5.463570513538873</v>
       </c>
       <c r="K12" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.316088879762191</v>
+        <v>5.563093143657058</v>
       </c>
       <c r="C13" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>6.172669779618042</v>
+        <v>5.101804310776988</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007802672977778707</v>
+        <v>0.0004358021497044025</v>
       </c>
       <c r="F13" t="n">
-        <v>6.172669779618042</v>
+        <v>5.101804310776988</v>
       </c>
       <c r="G13" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.385785535759741e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>5.316088879762191</v>
+        <v>5.563093143657058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002417206831732525</v>
+        <v>0.0007317363032701521</v>
       </c>
       <c r="J13" t="n">
-        <v>5.316088879762191</v>
+        <v>5.563093143657058</v>
       </c>
       <c r="K13" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.402584433161958</v>
+        <v>5.662615773775242</v>
       </c>
       <c r="C14" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>6.245180947252923</v>
+        <v>5.191984435869129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00102223568808256</v>
+        <v>0.0005506672723605863</v>
       </c>
       <c r="F14" t="n">
-        <v>6.245180947252923</v>
+        <v>5.191984435869129</v>
       </c>
       <c r="G14" t="n">
-        <v>6.395778701998687e-05</v>
+        <v>5.626028787135974e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>5.402584433161958</v>
+        <v>5.662615773775242</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002870853742933937</v>
+        <v>0.0009865029246560379</v>
       </c>
       <c r="J14" t="n">
-        <v>5.402584433161958</v>
+        <v>5.662615773775242</v>
       </c>
       <c r="K14" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.489079986561726</v>
+        <v>5.762138403893426</v>
       </c>
       <c r="C15" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>6.317692114887804</v>
+        <v>5.28216456096127</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001321163297360736</v>
+        <v>0.0006966623602985751</v>
       </c>
       <c r="F15" t="n">
-        <v>6.317692114887804</v>
+        <v>5.28216456096127</v>
       </c>
       <c r="G15" t="n">
-        <v>6.433363158003566e-05</v>
+        <v>5.944198897726578e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>5.489079986561726</v>
+        <v>5.762138403893426</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003361758076010248</v>
+        <v>0.001317379483962916</v>
       </c>
       <c r="J15" t="n">
-        <v>5.489079986561726</v>
+        <v>5.762138403893426</v>
       </c>
       <c r="K15" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.575575539961494</v>
+        <v>5.861661034011611</v>
       </c>
       <c r="C16" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>6.390203282522685</v>
+        <v>5.372344686053412</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001689170185731171</v>
+        <v>0.0008749190353733246</v>
       </c>
       <c r="F16" t="n">
-        <v>6.390203282522685</v>
+        <v>5.372344686053412</v>
       </c>
       <c r="G16" t="n">
-        <v>6.882872240534602e-05</v>
+        <v>6.361004574807542e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>5.575575539961494</v>
+        <v>5.861661034011611</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003916068106979327</v>
+        <v>0.001740351277615258</v>
       </c>
       <c r="J16" t="n">
-        <v>5.575575539961494</v>
+        <v>5.861661034011611</v>
       </c>
       <c r="K16" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.662071093361262</v>
+        <v>5.961183664129796</v>
       </c>
       <c r="C17" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>8.192855157485599e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>6.462714450157566</v>
+        <v>5.462524811145554</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002134720825644373</v>
+        <v>0.001092113261789975</v>
       </c>
       <c r="F17" t="n">
-        <v>6.462714450157566</v>
+        <v>5.462524811145554</v>
       </c>
       <c r="G17" t="n">
-        <v>7.500187622551627e-05</v>
+        <v>6.91086951740334e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>5.662071093361262</v>
+        <v>5.961183664129796</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000450891223604235</v>
+        <v>0.002265398373027782</v>
       </c>
       <c r="J17" t="n">
-        <v>5.662071093361262</v>
+        <v>5.961183664129796</v>
       </c>
       <c r="K17" t="n">
-        <v>4.674747588163827e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.74856664676103</v>
+        <v>6.06070629424798</v>
       </c>
       <c r="C18" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>9.788516563501634e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>6.535225617792447</v>
+        <v>5.552704936237695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002666990937233531</v>
+        <v>0.001353403354681223</v>
       </c>
       <c r="F18" t="n">
-        <v>6.535225617792447</v>
+        <v>5.552704936237695</v>
       </c>
       <c r="G18" t="n">
-        <v>8.337813026060116e-05</v>
+        <v>7.59913136190181e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>5.74856664676103</v>
+        <v>6.06070629424798</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005179897246100811</v>
+        <v>0.002906722488342482</v>
       </c>
       <c r="J18" t="n">
-        <v>5.74856664676103</v>
+        <v>6.06070629424798</v>
       </c>
       <c r="K18" t="n">
-        <v>4.904719763453076e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.835062200160797</v>
+        <v>6.160228924366164</v>
       </c>
       <c r="C19" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>0.0001664187414963547</v>
       </c>
       <c r="D19" t="n">
-        <v>6.607736785427328</v>
+        <v>5.642885061329836</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00329880791564074</v>
+        <v>0.001663323472674965</v>
       </c>
       <c r="F19" t="n">
-        <v>6.607736785427328</v>
+        <v>5.642885061329836</v>
       </c>
       <c r="G19" t="n">
-        <v>9.461295210405388e-05</v>
+        <v>8.528852421111206e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>5.835062200160797</v>
+        <v>6.160228924366164</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000592643084773432</v>
+        <v>0.003677935261906783</v>
       </c>
       <c r="J19" t="n">
-        <v>5.835062200160797</v>
+        <v>6.160228924366164</v>
       </c>
       <c r="K19" t="n">
-        <v>5.267806160316993e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.921557753560565</v>
+        <v>6.259751554484349</v>
       </c>
       <c r="C20" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>0.0002791092624018501</v>
       </c>
       <c r="D20" t="n">
-        <v>6.680247953062208</v>
+        <v>5.733065186421977</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004035334111776673</v>
+        <v>0.002029724005961363</v>
       </c>
       <c r="F20" t="n">
-        <v>6.680247953062208</v>
+        <v>5.733065186421977</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001095142932060165</v>
+        <v>0.0001000155024383669</v>
       </c>
       <c r="H20" t="n">
-        <v>5.921557753560565</v>
+        <v>6.259751554484349</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006795036261210521</v>
+        <v>0.004604284916709495</v>
       </c>
       <c r="J20" t="n">
-        <v>5.921557753560565</v>
+        <v>6.259751554484349</v>
       </c>
       <c r="K20" t="n">
-        <v>5.771316411793378e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.008053306960333</v>
+        <v>6.359274184602533</v>
       </c>
       <c r="C21" t="n">
-        <v>8.192855120892257e-05</v>
+        <v>0.0004535094130994959</v>
       </c>
       <c r="D21" t="n">
-        <v>6.75275912069709</v>
+        <v>5.823245311514119</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004885517934156943</v>
+        <v>0.002462100132383395</v>
       </c>
       <c r="F21" t="n">
-        <v>6.75275912069709</v>
+        <v>5.823245311514119</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001297493916953897</v>
+        <v>0.0001189261546435504</v>
       </c>
       <c r="H21" t="n">
-        <v>6.008053306960333</v>
+        <v>6.359274184602533</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0007809828628914952</v>
+        <v>0.005696294057817007</v>
       </c>
       <c r="J21" t="n">
-        <v>6.008053306960333</v>
+        <v>6.359274184602533</v>
       </c>
       <c r="K21" t="n">
-        <v>6.465914927352314e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.094548860360101</v>
+        <v>6.458796814720718</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001165658767323977</v>
+        <v>0.0007134692645340866</v>
       </c>
       <c r="D22" t="n">
-        <v>6.82527028833197</v>
+        <v>5.91342543660626</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005866529982958391</v>
+        <v>0.002976804417753381</v>
       </c>
       <c r="F22" t="n">
-        <v>6.82527028833197</v>
+        <v>5.91342543660626</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001561973647899748</v>
+        <v>0.0001429344410201651</v>
       </c>
       <c r="H22" t="n">
-        <v>6.094548860360101</v>
+        <v>6.458796814720718</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0009053243851076628</v>
+        <v>0.006976008231898452</v>
       </c>
       <c r="J22" t="n">
-        <v>6.094548860360101</v>
+        <v>6.458796814720718</v>
       </c>
       <c r="K22" t="n">
-        <v>7.44642842613399e-05</v>
+        <v>4.704038532537759e-05</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.181044413759869</v>
+        <v>6.558319444838903</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001870472067083917</v>
+        <v>0.001106180949100157</v>
       </c>
       <c r="D23" t="n">
-        <v>6.897781455966851</v>
+        <v>6.003605561698401</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006984303772741366</v>
+        <v>0.003576757438255339</v>
       </c>
       <c r="F23" t="n">
-        <v>6.897781455966851</v>
+        <v>6.003605561698401</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001950801958978646</v>
+        <v>0.0001724720820855527</v>
       </c>
       <c r="H23" t="n">
-        <v>6.181044413759869</v>
+        <v>6.558319444838903</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00106613338859766</v>
+        <v>0.008468982612198632</v>
       </c>
       <c r="J23" t="n">
-        <v>6.181044413759869</v>
+        <v>6.558319444838903</v>
       </c>
       <c r="K23" t="n">
-        <v>8.898968015224636e-05</v>
+        <v>4.849208873451508e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.267539967159637</v>
+        <v>6.657842074957086</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002893587165422227</v>
+        <v>0.001657583061574532</v>
       </c>
       <c r="D24" t="n">
-        <v>6.970292623601733</v>
+        <v>6.093785686790542</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008239291816065338</v>
+        <v>0.00428919994705022</v>
       </c>
       <c r="F24" t="n">
-        <v>6.970292623601733</v>
+        <v>6.093785686790542</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002453216780161464</v>
+        <v>0.0002092877714055777</v>
       </c>
       <c r="H24" t="n">
-        <v>6.267539967159637</v>
+        <v>6.657842074957086</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001273716031452787</v>
+        <v>0.01019551764680864</v>
       </c>
       <c r="J24" t="n">
-        <v>6.267539967159637</v>
+        <v>6.657842074957086</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001095759866158938</v>
+        <v>5.302873370000312e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.354035520559405</v>
+        <v>6.757364705075272</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004417499679981818</v>
+        <v>0.002434003860529762</v>
       </c>
       <c r="D25" t="n">
-        <v>7.042803791236613</v>
+        <v>6.183965811882683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.009646163581639253</v>
+        <v>0.00511735386642453</v>
       </c>
       <c r="F25" t="n">
-        <v>7.042803791236613</v>
+        <v>6.183965811882683</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003092088535850425</v>
+        <v>0.0002542486554716374</v>
       </c>
       <c r="H25" t="n">
-        <v>6.354035520559405</v>
+        <v>6.757364705075272</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001544673969032669</v>
+        <v>0.01217833635499681</v>
       </c>
       <c r="J25" t="n">
-        <v>6.354035520559405</v>
+        <v>6.757364705075272</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001375850843061502</v>
+        <v>6.146170544722761e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.440531073959173</v>
+        <v>6.856887335193456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000660789532440551</v>
+        <v>0.003490652399300962</v>
       </c>
       <c r="D26" t="n">
-        <v>7.115314958871494</v>
+        <v>6.274145936974825</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01121719970396358</v>
+        <v>0.006094539912506815</v>
       </c>
       <c r="F26" t="n">
-        <v>7.115314958871494</v>
+        <v>6.274145936974825</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003899984985866401</v>
+        <v>0.0003079177520085636</v>
       </c>
       <c r="H26" t="n">
-        <v>6.440531073959173</v>
+        <v>6.856887335193456</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001895741490017292</v>
+        <v>0.01443744304118599</v>
       </c>
       <c r="J26" t="n">
-        <v>6.440531073959173</v>
+        <v>6.856887335193456</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001745558550426894</v>
+        <v>7.751973049129247e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.527026627358941</v>
+        <v>6.95640996531164</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009619167767638379</v>
+        <v>0.004868282708120934</v>
       </c>
       <c r="D27" t="n">
-        <v>7.187826126506375</v>
+        <v>6.364326062066966</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01295677282145523</v>
+        <v>0.007227319824377292</v>
       </c>
       <c r="F27" t="n">
-        <v>7.187826126506375</v>
+        <v>6.364326062066966</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0004929362958277146</v>
+        <v>0.0003727913972486634</v>
       </c>
       <c r="H27" t="n">
-        <v>6.527026627358941</v>
+        <v>6.95640996531164</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002344449258935994</v>
+        <v>0.01700992908872899</v>
       </c>
       <c r="J27" t="n">
-        <v>6.527026627358941</v>
+        <v>6.95640996531164</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0002219747118163331</v>
+        <v>0.0001029728124443368</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.613522180758709</v>
+        <v>7.055932595429825</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00139084411059158</v>
+        <v>0.006691044739319149</v>
       </c>
       <c r="D28" t="n">
-        <v>7.260337294141256</v>
+        <v>6.454506187159107</v>
       </c>
       <c r="E28" t="n">
-        <v>0.014877131304153</v>
+        <v>0.008547984580152983</v>
       </c>
       <c r="F28" t="n">
-        <v>7.260337294141256</v>
+        <v>6.454506187159107</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0006202554972985458</v>
+        <v>0.0004481188868249567</v>
       </c>
       <c r="H28" t="n">
-        <v>6.613522180758709</v>
+        <v>7.055932595429825</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002917396039502708</v>
+        <v>0.01989843166733737</v>
       </c>
       <c r="J28" t="n">
-        <v>6.613522180758709</v>
+        <v>7.055932595429825</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002834011338978837</v>
+        <v>0.0001399287836150223</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.700017734158476</v>
+        <v>7.155455225548009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001955627007020484</v>
+        <v>0.008964970495657268</v>
       </c>
       <c r="D29" t="n">
-        <v>7.332848461776137</v>
+        <v>6.544686312251249</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01698814899193334</v>
+        <v>0.01006989282808787</v>
       </c>
       <c r="F29" t="n">
-        <v>7.332848461776137</v>
+        <v>6.544686312251249</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0007756167623722492</v>
+        <v>0.0005362603257995875</v>
       </c>
       <c r="H29" t="n">
-        <v>6.700017734158476</v>
+        <v>7.155455225548009</v>
       </c>
       <c r="I29" t="n">
-        <v>0.003629808141878555</v>
+        <v>0.02312112966945118</v>
       </c>
       <c r="J29" t="n">
-        <v>6.700017734158476</v>
+        <v>7.155455225548009</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0003612518707560711</v>
+        <v>0.0001914213021786831</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.786513287558244</v>
+        <v>7.254977855666194</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002711266596978064</v>
+        <v>0.01178105096666486</v>
       </c>
       <c r="D30" t="n">
-        <v>7.405359629411018</v>
+        <v>6.634866437343391</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01930039703359491</v>
+        <v>0.01181644579672687</v>
       </c>
       <c r="F30" t="n">
-        <v>7.405359629411018</v>
+        <v>6.634866437343391</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000964321711071775</v>
+        <v>0.0006402978092244102</v>
       </c>
       <c r="H30" t="n">
-        <v>6.786513287558244</v>
+        <v>7.254977855666194</v>
       </c>
       <c r="I30" t="n">
-        <v>0.004503264183783696</v>
+        <v>0.02670915234716656</v>
       </c>
       <c r="J30" t="n">
-        <v>6.786513287558244</v>
+        <v>7.254977855666194</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0004579122442122256</v>
+        <v>0.0002634573751540308</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.873008840958012</v>
+        <v>7.354500485784378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003691139254554739</v>
+        <v>0.01520985671783393</v>
       </c>
       <c r="D31" t="n">
-        <v>7.477870797045899</v>
+        <v>6.725046562435532</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02182606382407104</v>
+        <v>0.01381117517856322</v>
       </c>
       <c r="F31" t="n">
-        <v>7.477870797045899</v>
+        <v>6.725046562435532</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001197062107710421</v>
+        <v>0.0007588090322458161</v>
       </c>
       <c r="H31" t="n">
-        <v>6.873008840958012</v>
+        <v>7.354500485784378</v>
       </c>
       <c r="I31" t="n">
-        <v>0.005566228632587493</v>
+        <v>0.03064476152133369</v>
       </c>
       <c r="J31" t="n">
-        <v>6.873008840958012</v>
+        <v>7.354500485784378</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00057561462958507</v>
+        <v>0.0003594409432008431</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.95950439435778</v>
+        <v>7.454023115902563</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004920169746775653</v>
+        <v>0.01924457906858979</v>
       </c>
       <c r="D32" t="n">
-        <v>7.550381964680779</v>
+        <v>6.815226687527673</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02458710353529815</v>
+        <v>0.01606073085547362</v>
       </c>
       <c r="F32" t="n">
-        <v>7.550381964680779</v>
+        <v>6.815226687527673</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001477163805700736</v>
+        <v>0.0008956362736857355</v>
       </c>
       <c r="H32" t="n">
-        <v>6.95950439435778</v>
+        <v>7.454023115902563</v>
       </c>
       <c r="I32" t="n">
-        <v>0.006823636508536917</v>
+        <v>0.03493796544518477</v>
       </c>
       <c r="J32" t="n">
-        <v>6.95950439435778</v>
+        <v>7.454023115902563</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0007202957396381391</v>
+        <v>0.0004919176927883216</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.045999947757547</v>
+        <v>7.553545746020747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0064914670987239</v>
+        <v>0.02400761838315511</v>
       </c>
       <c r="D33" t="n">
-        <v>7.62289313231566</v>
+        <v>6.905406812619814</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02759268174525943</v>
+        <v>0.01859895059022916</v>
       </c>
       <c r="F33" t="n">
-        <v>7.62289313231566</v>
+        <v>6.905406812619814</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001815539565658054</v>
+        <v>0.001047116172935758</v>
       </c>
       <c r="H33" t="n">
-        <v>7.045999947757547</v>
+        <v>7.553545746020747</v>
       </c>
       <c r="I33" t="n">
-        <v>0.008311027325115704</v>
+        <v>0.03959633792361675</v>
       </c>
       <c r="J33" t="n">
-        <v>7.045999947757547</v>
+        <v>7.553545746020747</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0008910244597213693</v>
+        <v>0.0006641667439146196</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.132495501157315</v>
+        <v>7.653068376138931</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00838914057174232</v>
+        <v>0.02944979174958999</v>
       </c>
       <c r="D34" t="n">
-        <v>7.695404299950541</v>
+        <v>6.995586937711955</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03085623889209763</v>
+        <v>0.02141633465818961</v>
       </c>
       <c r="F34" t="n">
-        <v>7.695404299950541</v>
+        <v>6.995586937711955</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002217151834920718</v>
+        <v>0.001218018359752117</v>
       </c>
       <c r="H34" t="n">
-        <v>7.132495501157315</v>
+        <v>7.653068376138931</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0100341976275565</v>
+        <v>0.04459146898515264</v>
       </c>
       <c r="J34" t="n">
-        <v>7.132495501157315</v>
+        <v>7.653068376138931</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001092282879926556</v>
+        <v>0.0008832207146113166</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.218991054557083</v>
+        <v>7.752591006257116</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01070071183913981</v>
+        <v>0.03559565812770974</v>
       </c>
       <c r="D35" t="n">
-        <v>7.767915467585422</v>
+        <v>7.085767062804097</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03439359303657691</v>
+        <v>0.0245465390298504</v>
       </c>
       <c r="F35" t="n">
-        <v>7.767915467585422</v>
+        <v>7.085767062804097</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002686596781589682</v>
+        <v>0.001409715707789641</v>
       </c>
       <c r="H35" t="n">
-        <v>7.218991054557083</v>
+        <v>7.752591006257116</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01202387106122351</v>
+        <v>0.04991978045507008</v>
       </c>
       <c r="J35" t="n">
-        <v>7.218991054557083</v>
+        <v>7.752591006257116</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001327047559187267</v>
+        <v>0.001155582301511148</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.305486607956851</v>
+        <v>7.8521136363753</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0134471496942458</v>
+        <v>0.0424874738746301</v>
       </c>
       <c r="D36" t="n">
-        <v>7.840426635220303</v>
+        <v>7.175947187896238</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03822337490850922</v>
+        <v>0.02797447243341816</v>
       </c>
       <c r="F36" t="n">
-        <v>7.840426635220303</v>
+        <v>7.175947187896238</v>
       </c>
       <c r="G36" t="n">
-        <v>0.003233400763936655</v>
+        <v>0.00162072796285718</v>
       </c>
       <c r="H36" t="n">
-        <v>7.305486607956851</v>
+        <v>7.8521136363753</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01429761832492833</v>
+        <v>0.05555446814988495</v>
       </c>
       <c r="J36" t="n">
-        <v>7.305486607956851</v>
+        <v>7.8521136363753</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001597434925526923</v>
+        <v>0.001486336349409713</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.391982161356619</v>
+        <v>7.951636266493485</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01663578878385348</v>
+        <v>0.05002942175563185</v>
       </c>
       <c r="D37" t="n">
-        <v>7.912937802855184</v>
+        <v>7.266127312988379</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04235979597177496</v>
+        <v>0.03172161973401137</v>
       </c>
       <c r="F37" t="n">
-        <v>7.912937802855184</v>
+        <v>7.266127312988379</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003861141521416488</v>
+        <v>0.001855054744384143</v>
       </c>
       <c r="H37" t="n">
-        <v>7.391982161356619</v>
+        <v>7.951636266493485</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01688621716172447</v>
+        <v>0.06147116429852744</v>
       </c>
       <c r="J37" t="n">
-        <v>7.391982161356619</v>
+        <v>7.951636266493485</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001904262248460298</v>
+        <v>0.001885656255271311</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.478477714756387</v>
+        <v>8.051158896611669</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02037106814996722</v>
+        <v>0.05825120398889831</v>
       </c>
       <c r="D38" t="n">
-        <v>7.985448970490065</v>
+        <v>7.35630743808052</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04680112683113289</v>
+        <v>0.03577542465049441</v>
       </c>
       <c r="F38" t="n">
-        <v>7.985448970490065</v>
+        <v>7.35630743808052</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004583147415305855</v>
+        <v>0.002117195095762385</v>
       </c>
       <c r="H38" t="n">
-        <v>7.478477714756387</v>
+        <v>8.051158896611669</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01981077049487144</v>
+        <v>0.0676367279256448</v>
       </c>
       <c r="J38" t="n">
-        <v>7.478477714756387</v>
+        <v>8.051158896611669</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002248397522192902</v>
+        <v>0.002347740075703933</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.564973268156155</v>
+        <v>8.150681526729853</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02458366912795812</v>
+        <v>0.06704536282239736</v>
       </c>
       <c r="D39" t="n">
-        <v>8.057960138124946</v>
+        <v>7.446487563172662</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05156676692986236</v>
+        <v>0.0401425998903395</v>
       </c>
       <c r="F39" t="n">
-        <v>8.057960138124946</v>
+        <v>7.446487563172662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005403013548970909</v>
+        <v>0.002408749652423469</v>
       </c>
       <c r="H39" t="n">
-        <v>7.564973268156155</v>
+        <v>8.150681526729853</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02311781769249778</v>
+        <v>0.07400259329343904</v>
       </c>
       <c r="J39" t="n">
-        <v>7.564973268156155</v>
+        <v>8.150681526729853</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002628121353634103</v>
+        <v>0.002876279821458847</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.651468821555923</v>
+        <v>8.250204156848039</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02935495874540685</v>
+        <v>0.07631143940008649</v>
       </c>
       <c r="D40" t="n">
-        <v>8.130471305759826</v>
+        <v>7.536667688264803</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05665331250289311</v>
+        <v>0.04480338597551212</v>
       </c>
       <c r="F40" t="n">
-        <v>8.130471305759826</v>
+        <v>7.536667688264803</v>
       </c>
       <c r="G40" t="n">
-        <v>0.006328679160164241</v>
+        <v>0.002738111241197054</v>
       </c>
       <c r="H40" t="n">
-        <v>7.651468821555923</v>
+        <v>8.250204156848039</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02682202081428243</v>
+        <v>0.08053102740426533</v>
       </c>
       <c r="J40" t="n">
-        <v>7.651468821555923</v>
+        <v>8.250204156848039</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003043591975868691</v>
+        <v>0.003470133870149199</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.737964374955691</v>
+        <v>8.349726786966222</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0346632026371706</v>
+        <v>0.08595874435881458</v>
       </c>
       <c r="D41" t="n">
-        <v>8.202982473394707</v>
+        <v>7.626847813356944</v>
       </c>
       <c r="E41" t="n">
-        <v>0.06204879560626793</v>
+        <v>0.04975676738280718</v>
       </c>
       <c r="F41" t="n">
-        <v>8.202982473394707</v>
+        <v>7.626847813356944</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007367013418342183</v>
+        <v>0.003112552215959261</v>
       </c>
       <c r="H41" t="n">
-        <v>7.737964374955691</v>
+        <v>8.349726786966222</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03097308706964596</v>
+        <v>0.0871582824730698</v>
       </c>
       <c r="J41" t="n">
-        <v>7.737964374955691</v>
+        <v>8.349726786966222</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003498129611401317</v>
+        <v>0.004123664070865846</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.824459928355459</v>
+        <v>8.449249417084406</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04048130239494562</v>
+        <v>0.09577881696100256</v>
       </c>
       <c r="D42" t="n">
-        <v>8.275493641029588</v>
+        <v>7.717027938449085</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06774227043649603</v>
+        <v>0.05497276871604959</v>
       </c>
       <c r="F42" t="n">
-        <v>8.275493641029588</v>
+        <v>7.717027938449085</v>
       </c>
       <c r="G42" t="n">
-        <v>0.008524229683930537</v>
+        <v>0.003538033045592934</v>
       </c>
       <c r="H42" t="n">
-        <v>7.824459928355459</v>
+        <v>8.449249417084406</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03558493164711168</v>
+        <v>0.09382685648907062</v>
       </c>
       <c r="J42" t="n">
-        <v>7.824459928355459</v>
+        <v>8.449249417084406</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003989348091320684</v>
+        <v>0.004840063711581841</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.910955481755226</v>
+        <v>8.548772047202592</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04687609113063283</v>
+        <v>0.1055889145391154</v>
       </c>
       <c r="D43" t="n">
-        <v>8.34800480866447</v>
+        <v>7.807208063541227</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07373407578390125</v>
+        <v>0.06043916390881755</v>
       </c>
       <c r="F43" t="n">
-        <v>8.34800480866447</v>
+        <v>7.807208063541227</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00980873795383894</v>
+        <v>0.004025895291049953</v>
       </c>
       <c r="H43" t="n">
-        <v>7.910955481755226</v>
+        <v>8.548772047202592</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04069349684383128</v>
+        <v>0.1004659860572746</v>
       </c>
       <c r="J43" t="n">
-        <v>7.910955481755226</v>
+        <v>8.548772047202592</v>
       </c>
       <c r="K43" t="n">
-        <v>0.004516286874389377</v>
+        <v>0.005615212573607278</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.997451035154994</v>
+        <v>8.648294677320775</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05373444117262971</v>
+        <v>0.1151400583397366</v>
       </c>
       <c r="D44" t="n">
-        <v>8.420515976299351</v>
+        <v>7.897388188633368</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07998305221300468</v>
+        <v>0.06612030571419426</v>
       </c>
       <c r="F44" t="n">
-        <v>8.420515976299351</v>
+        <v>7.897388188633368</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01123465672955373</v>
+        <v>0.0045918105757597</v>
       </c>
       <c r="H44" t="n">
-        <v>7.997451035154994</v>
+        <v>8.648294677320775</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04630033690274505</v>
+        <v>0.1069963076834166</v>
       </c>
       <c r="J44" t="n">
-        <v>7.997451035154994</v>
+        <v>8.648294677320775</v>
       </c>
       <c r="K44" t="n">
-        <v>0.005081909073609532</v>
+        <v>0.006453531772900177</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8.083946588554763</v>
+        <v>8.747817307438961</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0610863318039452</v>
+        <v>0.1242321068069371</v>
       </c>
       <c r="D45" t="n">
-        <v>8.493027143934231</v>
+        <v>7.987568313725509</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08644631062977501</v>
+        <v>0.0719802967837205</v>
       </c>
       <c r="F45" t="n">
-        <v>8.493027143934231</v>
+        <v>7.987568313725509</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01279839777781281</v>
+        <v>0.005239564009080481</v>
       </c>
       <c r="H45" t="n">
-        <v>8.083946588554763</v>
+        <v>8.747817307438961</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05239905662633288</v>
+        <v>0.1133538649959275</v>
       </c>
       <c r="J45" t="n">
-        <v>8.083946588554763</v>
+        <v>8.747817307438961</v>
       </c>
       <c r="K45" t="n">
-        <v>0.005689897841488328</v>
+        <v>0.007365347032172303</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8.170442141954531</v>
+        <v>8.847339937557145</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06885301856480344</v>
+        <v>0.1325230954790765</v>
       </c>
       <c r="D46" t="n">
-        <v>8.565538311569112</v>
+        <v>8.07774843881765</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09309793719752642</v>
+        <v>0.07798614017675939</v>
       </c>
       <c r="F46" t="n">
-        <v>8.565538311569112</v>
+        <v>8.07774843881765</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01450731267610041</v>
+        <v>0.005987732906807716</v>
       </c>
       <c r="H46" t="n">
-        <v>8.170442141954531</v>
+        <v>8.847339937557145</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05897853481685582</v>
+        <v>0.1194470331474989</v>
       </c>
       <c r="J46" t="n">
-        <v>8.170442141954531</v>
+        <v>8.847339937557145</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006346033152363697</v>
+        <v>0.008355357113301404</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8.256937695354297</v>
+        <v>8.946862567675328</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07695462783172449</v>
+        <v>0.1398999448307911</v>
       </c>
       <c r="D47" t="n">
-        <v>8.638049479203993</v>
+        <v>8.167928563909792</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09987745384862298</v>
+        <v>0.08408123977328091</v>
       </c>
       <c r="F47" t="n">
-        <v>8.638049479203993</v>
+        <v>8.167928563909792</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01636163947819932</v>
+        <v>0.006841612105174704</v>
       </c>
       <c r="H47" t="n">
-        <v>8.256937695354297</v>
+        <v>8.946862567675328</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06598260517556541</v>
+        <v>0.1252006948987426</v>
       </c>
       <c r="J47" t="n">
-        <v>8.256937695354297</v>
+        <v>8.946862567675328</v>
       </c>
       <c r="K47" t="n">
-        <v>0.007055677290248293</v>
+        <v>0.009445133207446344</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8.343433248754065</v>
+        <v>9.046385197793514</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0853417943721141</v>
+        <v>0.1461673110995005</v>
       </c>
       <c r="D48" t="n">
-        <v>8.710560646838873</v>
+        <v>8.258108689001933</v>
       </c>
       <c r="E48" t="n">
-        <v>0.106732745434001</v>
+        <v>0.09022548347720569</v>
       </c>
       <c r="F48" t="n">
-        <v>8.710560646838873</v>
+        <v>8.258108689001933</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01837904739019716</v>
+        <v>0.007814872894789892</v>
       </c>
       <c r="H48" t="n">
-        <v>8.343433248754065</v>
+        <v>9.046385197793514</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07336790484418405</v>
+        <v>0.1305671142511617</v>
       </c>
       <c r="J48" t="n">
-        <v>8.343433248754065</v>
+        <v>9.046385197793514</v>
       </c>
       <c r="K48" t="n">
-        <v>0.007833768632724078</v>
+        <v>0.0106497289516569</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8.429928802153833</v>
+        <v>9.145907827911698</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09386726104726108</v>
+        <v>0.1511849452704072</v>
       </c>
       <c r="D49" t="n">
-        <v>8.783071814473754</v>
+        <v>8.348288814094074</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1136095172562803</v>
+        <v>0.09635311474762658</v>
       </c>
       <c r="F49" t="n">
-        <v>8.783071814473754</v>
+        <v>8.348288814094074</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0205596348657727</v>
+        <v>0.008916997593268302</v>
       </c>
       <c r="H49" t="n">
-        <v>8.429928802153833</v>
+        <v>9.145907827911698</v>
       </c>
       <c r="I49" t="n">
-        <v>0.08103459489888186</v>
+        <v>0.135462827968412</v>
       </c>
       <c r="J49" t="n">
-        <v>8.429928802153833</v>
+        <v>9.145907827911698</v>
       </c>
       <c r="K49" t="n">
-        <v>0.008689015302142564</v>
+        <v>0.01199263023294154</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8.516424355553601</v>
+        <v>9.245430458029883</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102413574755494</v>
+        <v>0.1550636392851293</v>
       </c>
       <c r="D50" t="n">
-        <v>8.855582982108636</v>
+        <v>8.438468939186215</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1204332175729433</v>
+        <v>0.1024159878814059</v>
       </c>
       <c r="F50" t="n">
-        <v>8.855582982108636</v>
+        <v>8.438468939186215</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0228998173308621</v>
+        <v>0.01015738643132827</v>
       </c>
       <c r="H50" t="n">
-        <v>8.516424355553601</v>
+        <v>9.245430458029883</v>
       </c>
       <c r="I50" t="n">
-        <v>0.08890626544893096</v>
+        <v>0.1398571374279464</v>
       </c>
       <c r="J50" t="n">
-        <v>8.516424355553601</v>
+        <v>9.245430458029883</v>
       </c>
       <c r="K50" t="n">
-        <v>0.009635009665914884</v>
+        <v>0.01349378077885933</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8.602919908953369</v>
+        <v>9.344953088148067</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1108323358334622</v>
+        <v>0.1577506361967961</v>
       </c>
       <c r="D51" t="n">
-        <v>8.928094149743517</v>
+        <v>8.528649064278357</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1271200230102044</v>
+        <v>0.1083431429670864</v>
       </c>
       <c r="F51" t="n">
-        <v>8.928094149743517</v>
+        <v>8.528649064278357</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02540430037530569</v>
+        <v>0.01154885384873926</v>
       </c>
       <c r="H51" t="n">
-        <v>8.602919908953369</v>
+        <v>9.344953088148067</v>
       </c>
       <c r="I51" t="n">
-        <v>0.09686092800343571</v>
+        <v>0.1437433336764889</v>
       </c>
       <c r="J51" t="n">
-        <v>8.602919908953369</v>
+        <v>9.344953088148067</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01068931283895857</v>
+        <v>0.01518043874941874</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8.689415462353137</v>
+        <v>9.444475718266251</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1189778095318034</v>
+        <v>0.1595104493393532</v>
       </c>
       <c r="D52" t="n">
-        <v>9.000605317378398</v>
+        <v>8.618829189370498</v>
       </c>
       <c r="E52" t="n">
-        <v>0.133620992613308</v>
+        <v>0.1140841772663028</v>
       </c>
       <c r="F52" t="n">
-        <v>9.000605317378398</v>
+        <v>8.618829189370498</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02807400501429975</v>
+        <v>0.01309466369071718</v>
       </c>
       <c r="H52" t="n">
-        <v>8.689415462353137</v>
+        <v>9.444475718266251</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1047991979010405</v>
+        <v>0.1470869735502275</v>
       </c>
       <c r="J52" t="n">
-        <v>8.689415462353137</v>
+        <v>9.444475718266251</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01186832239334229</v>
+        <v>0.01706138995290431</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8.775911015752905</v>
+        <v>9.543998348384436</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1266326910169222</v>
+        <v>0.1605396077724193</v>
       </c>
       <c r="D53" t="n">
-        <v>9.073116485013278</v>
+        <v>8.709009314462639</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1398569496014717</v>
+        <v>0.1195716684128844</v>
       </c>
       <c r="F53" t="n">
-        <v>9.073116485013278</v>
+        <v>8.709009314462639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03092654336109287</v>
+        <v>0.01481473470054427</v>
       </c>
       <c r="H53" t="n">
-        <v>8.775911015752905</v>
+        <v>9.543998348384436</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1125959764809725</v>
+        <v>0.149940371934344</v>
       </c>
       <c r="J53" t="n">
-        <v>8.775911015752905</v>
+        <v>9.543998348384436</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01318666735488076</v>
+        <v>0.01915545143268046</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8.862406569152673</v>
+        <v>9.64352097850262</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1337280023412555</v>
+        <v>0.161045224391774</v>
       </c>
       <c r="D54" t="n">
-        <v>9.145627652648159</v>
+        <v>8.79918943955478</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1457686393134759</v>
+        <v>0.1247520371405902</v>
       </c>
       <c r="F54" t="n">
-        <v>9.145627652648159</v>
+        <v>8.79918943955478</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03394756819343649</v>
+        <v>0.01670571110144911</v>
       </c>
       <c r="H54" t="n">
-        <v>8.862406569152673</v>
+        <v>9.64352097850262</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1201598487211847</v>
+        <v>0.1523448368842223</v>
       </c>
       <c r="J54" t="n">
-        <v>8.862406569152673</v>
+        <v>9.64352097850262</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01466849284238392</v>
+        <v>0.02146326893266737</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.948902122552441</v>
+        <v>9.743043608620805</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1400362933641065</v>
+        <v>0.1613085190326961</v>
       </c>
       <c r="D55" t="n">
-        <v>9.218138820283039</v>
+        <v>8.889369564646922</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1512828169994667</v>
+        <v>0.1295823355601494</v>
       </c>
       <c r="F55" t="n">
-        <v>9.218138820283039</v>
+        <v>8.889369564646922</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03713681613159901</v>
+        <v>0.01878307800194122</v>
       </c>
       <c r="H55" t="n">
-        <v>8.948902122552441</v>
+        <v>9.743043608620805</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1273721214214088</v>
+        <v>0.1543453611162821</v>
       </c>
       <c r="J55" t="n">
-        <v>8.948902122552441</v>
+        <v>9.743043608620805</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0163198066615356</v>
+        <v>0.023983916798803</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.035397675952208</v>
+        <v>9.842566238738989</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1455131019673129</v>
+        <v>0.161504957069994</v>
       </c>
       <c r="D56" t="n">
-        <v>9.29064998791792</v>
+        <v>8.979549689739063</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1563447026564096</v>
+        <v>0.1340078457862854</v>
       </c>
       <c r="F56" t="n">
-        <v>9.29064998791792</v>
+        <v>8.979549689739063</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04049838327889736</v>
+        <v>0.02105792018761607</v>
       </c>
       <c r="H56" t="n">
-        <v>9.035397675952208</v>
+        <v>9.842566238738989</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1341626928551252</v>
+        <v>0.1560465283187088</v>
       </c>
       <c r="J56" t="n">
-        <v>9.035397675952208</v>
+        <v>9.842566238738989</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01816992114305463</v>
+        <v>0.02672031368943013</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.121893229351976</v>
+        <v>9.942088868857173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1501203186035233</v>
+        <v>0.1617833892843888</v>
       </c>
       <c r="D57" t="n">
-        <v>9.363161155552802</v>
+        <v>9.069729814831206</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1609064444125091</v>
+        <v>0.1380180866741688</v>
       </c>
       <c r="F57" t="n">
-        <v>9.363161155552802</v>
+        <v>9.069729814831206</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04404143826715235</v>
+        <v>0.0235430285988129</v>
       </c>
       <c r="H57" t="n">
-        <v>9.121893229351976</v>
+        <v>9.942088868857173</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1404473310096312</v>
+        <v>0.1575230052975556</v>
       </c>
       <c r="J57" t="n">
-        <v>9.121893229351976</v>
+        <v>9.942088868857173</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02022587079752555</v>
+        <v>0.02965083789592433</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.208388782751744</v>
+        <v>10.04161149897536</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1537333273330473</v>
+        <v>0.1621994447728205</v>
       </c>
       <c r="D58" t="n">
-        <v>9.435672323187683</v>
+        <v>9.159909939923345</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1649373545880886</v>
+        <v>0.1415796875019301</v>
       </c>
       <c r="F58" t="n">
-        <v>9.435672323187683</v>
+        <v>9.159909939923345</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04776054373623553</v>
+        <v>0.02623946399106509</v>
       </c>
       <c r="H58" t="n">
-        <v>9.208388782751744</v>
+        <v>10.04161149897536</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1461890607590725</v>
+        <v>0.1588553400418585</v>
       </c>
       <c r="J58" t="n">
-        <v>9.208388782751744</v>
+        <v>10.04161149897536</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0225053050916978</v>
+        <v>0.03277280904833419</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.294884336151512</v>
+        <v>10.14113412909354</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1565373069636792</v>
+        <v>0.1627709763477848</v>
       </c>
       <c r="D59" t="n">
-        <v>9.508183490822564</v>
+        <v>9.250090065015488</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1684179450870057</v>
+        <v>0.1447102612356783</v>
       </c>
       <c r="F59" t="n">
-        <v>9.508183490822564</v>
+        <v>9.250090065015488</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05164068182169167</v>
+        <v>0.02914862264236912</v>
       </c>
       <c r="H59" t="n">
-        <v>9.294884336151512</v>
+        <v>10.14113412909354</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1513287942853478</v>
+        <v>0.160127305756299</v>
       </c>
       <c r="J59" t="n">
-        <v>9.294884336151512</v>
+        <v>10.14113412909354</v>
       </c>
       <c r="K59" t="n">
-        <v>0.02502108352085851</v>
+        <v>0.03605622038761096</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.38137988955128</v>
+        <v>10.24065675921173</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1584978453167777</v>
+        <v>0.1634193093906152</v>
       </c>
       <c r="D60" t="n">
-        <v>9.580694658457444</v>
+        <v>9.340270190107628</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1713253508743082</v>
+        <v>0.147419311605634</v>
       </c>
       <c r="F60" t="n">
-        <v>9.580694658457444</v>
+        <v>9.340270190107628</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05568426267885131</v>
+        <v>0.03228801742544268</v>
       </c>
       <c r="H60" t="n">
-        <v>9.38137988955128</v>
+        <v>10.24065675921173</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1558607209918831</v>
+        <v>0.1613925803681012</v>
       </c>
       <c r="J60" t="n">
-        <v>9.38137988955128</v>
+        <v>10.24065675921173</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02778130619806593</v>
+        <v>0.03949505337405126</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.467875442951048</v>
+        <v>10.34017938932991</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1598055124823486</v>
+        <v>0.1640620844982212</v>
       </c>
       <c r="D61" t="n">
-        <v>9.653205826092325</v>
+        <v>9.430450315199771</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1736582875664717</v>
+        <v>0.1497429987726368</v>
       </c>
       <c r="F61" t="n">
-        <v>9.653205826092325</v>
+        <v>9.430450315199771</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05989386778692948</v>
+        <v>0.03564832672905302</v>
       </c>
       <c r="H61" t="n">
-        <v>9.467875442951048</v>
+        <v>10.34017938932991</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1597510781315405</v>
+        <v>0.1626953296167736</v>
       </c>
       <c r="J61" t="n">
-        <v>9.467875442951048</v>
+        <v>10.34017938932991</v>
       </c>
       <c r="K61" t="n">
-        <v>0.03079303372089923</v>
+        <v>0.04306162226928736</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.554370996350816</v>
+        <v>10.4397020194481</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1606128081323282</v>
+        <v>0.1645923049262503</v>
       </c>
       <c r="D62" t="n">
-        <v>9.725716993727207</v>
+        <v>9.52063044029191</v>
       </c>
       <c r="E62" t="n">
-        <v>0.175434322581925</v>
+        <v>0.1517327840332617</v>
       </c>
       <c r="F62" t="n">
-        <v>9.725716993727207</v>
+        <v>9.52063044029191</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06424761079103061</v>
+        <v>0.03923654737600731</v>
       </c>
       <c r="H62" t="n">
-        <v>9.554370996350816</v>
+        <v>10.4397020194481</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1630153641280808</v>
+        <v>0.1640464819395692</v>
       </c>
       <c r="J62" t="n">
-        <v>9.554370996350816</v>
+        <v>10.4397020194481</v>
       </c>
       <c r="K62" t="n">
-        <v>0.03406801356402176</v>
+        <v>0.04675343989648537</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.640866549750584</v>
+        <v>10.53922464956628</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1610358261006411</v>
+        <v>0.1649487226948399</v>
       </c>
       <c r="D63" t="n">
-        <v>9.798228161362086</v>
+        <v>9.610810565384053</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1766859447540122</v>
+        <v>0.1534415103016334</v>
       </c>
       <c r="F63" t="n">
-        <v>9.798228161362086</v>
+        <v>9.610810565384053</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06874892355488442</v>
+        <v>0.04303640558135922</v>
       </c>
       <c r="H63" t="n">
-        <v>9.640866549750584</v>
+        <v>10.53922464956628</v>
       </c>
       <c r="I63" t="n">
-        <v>0.165669632378883</v>
+        <v>0.1654504379016219</v>
       </c>
       <c r="J63" t="n">
-        <v>9.640866549750584</v>
+        <v>10.53922464956628</v>
       </c>
       <c r="K63" t="n">
-        <v>0.03759042579852573</v>
+        <v>0.05054261397783261</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.727362103150352</v>
+        <v>10.63874727968446</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1612758482668736</v>
+        <v>0.1650676407327536</v>
       </c>
       <c r="D64" t="n">
-        <v>9.870739328996969</v>
+        <v>9.700990690476193</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1774396887727316</v>
+        <v>0.1549358634389692</v>
       </c>
       <c r="F64" t="n">
-        <v>9.870739328996969</v>
+        <v>9.700990690476193</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07337339336371548</v>
+        <v>0.04703551742261684</v>
       </c>
       <c r="H64" t="n">
-        <v>9.727362103150352</v>
+        <v>10.63874727968446</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1677081452963057</v>
+        <v>0.166882557631929</v>
       </c>
       <c r="J64" t="n">
-        <v>9.727362103150352</v>
+        <v>10.63874727968446</v>
       </c>
       <c r="K64" t="n">
-        <v>0.04136894870632764</v>
+        <v>0.05443056740284182</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.81385765655012</v>
+        <v>10.73826990980265</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1614456706114717</v>
+        <v>0.1649952560486602</v>
       </c>
       <c r="D65" t="n">
-        <v>9.943250496631849</v>
+        <v>9.791170815568336</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1777506074496905</v>
+        <v>0.156286305261462</v>
       </c>
       <c r="F65" t="n">
-        <v>9.943250496631849</v>
+        <v>9.791170815568336</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07812110589917988</v>
+        <v>0.05122365535481769</v>
       </c>
       <c r="H65" t="n">
-        <v>9.81385765655012</v>
+        <v>10.73826990980265</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1691952855375319</v>
+        <v>0.1683149201611074</v>
       </c>
       <c r="J65" t="n">
-        <v>9.81385765655012</v>
+        <v>10.73826990980265</v>
       </c>
       <c r="K65" t="n">
-        <v>0.04539184837774465</v>
+        <v>0.05839945781656913</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.900353209949888</v>
+        <v>10.83779253992083</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1616508908108953</v>
+        <v>0.1647972895332571</v>
       </c>
       <c r="D66" t="n">
-        <v>10.01576166426673</v>
+        <v>9.881350940660475</v>
       </c>
       <c r="E66" t="n">
-        <v>0.177665877008557</v>
+        <v>0.1575430289248606</v>
       </c>
       <c r="F66" t="n">
-        <v>10.01576166426673</v>
+        <v>9.881350940660475</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08297712230937257</v>
+        <v>0.05558723066455173</v>
       </c>
       <c r="H66" t="n">
-        <v>9.900353209949888</v>
+        <v>10.83779253992083</v>
       </c>
       <c r="I66" t="n">
-        <v>0.170147186074965</v>
+        <v>0.1697134278577006</v>
       </c>
       <c r="J66" t="n">
-        <v>9.900353209949888</v>
+        <v>10.83779253992083</v>
       </c>
       <c r="K66" t="n">
-        <v>0.04963923214258605</v>
+        <v>0.06243908682402419</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.986848763349656</v>
+        <v>10.93731517003902</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1619493856180759</v>
+        <v>0.1646043234601891</v>
       </c>
       <c r="D67" t="n">
-        <v>10.08827283190161</v>
+        <v>9.971531065752618</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1772186398041781</v>
+        <v>0.158772370118402</v>
       </c>
       <c r="F67" t="n">
-        <v>10.08827283190161</v>
+        <v>9.971531065752618</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08792044762853321</v>
+        <v>0.06009845103713623</v>
       </c>
       <c r="H67" t="n">
-        <v>9.986848763349656</v>
+        <v>10.93731517003902</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1706150106492164</v>
+        <v>0.1710414597625264</v>
       </c>
       <c r="J67" t="n">
-        <v>9.986848763349656</v>
+        <v>10.93731517003902</v>
       </c>
       <c r="K67" t="n">
-        <v>0.05409600215254152</v>
+        <v>0.06654896808777716</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10.07334431674942</v>
+        <v>11.0368378001572</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1623726128695208</v>
+        <v>0.1645579097843967</v>
       </c>
       <c r="D68" t="n">
-        <v>10.16078399953649</v>
+        <v>10.06171119084476</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1764937606471689</v>
+        <v>0.1600022307010341</v>
       </c>
       <c r="F68" t="n">
-        <v>10.16078399953649</v>
+        <v>10.06171119084476</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09295096324570644</v>
+        <v>0.06474002494403046</v>
       </c>
       <c r="H68" t="n">
-        <v>10.07334431674942</v>
+        <v>11.0368378001572</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1706608315763532</v>
+        <v>0.1722788161770203</v>
       </c>
       <c r="J68" t="n">
-        <v>10.07334431674942</v>
+        <v>11.0368378001572</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05873273688857274</v>
+        <v>0.0707091887571271</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.15983987014919</v>
+        <v>11.13636043027539</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1628870351339413</v>
+        <v>0.1648354445912446</v>
       </c>
       <c r="D69" t="n">
-        <v>10.23329516717137</v>
+        <v>10.1518913159369</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1755452111437465</v>
+        <v>0.1612679580091259</v>
       </c>
       <c r="F69" t="n">
-        <v>10.23329516717137</v>
+        <v>10.1518913159369</v>
       </c>
       <c r="G69" t="n">
-        <v>0.09804017277537214</v>
+        <v>0.06948700063153028</v>
       </c>
       <c r="H69" t="n">
-        <v>10.15983987014919</v>
+        <v>11.13636043027539</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1703442367436019</v>
+        <v>0.1734066994730561</v>
       </c>
       <c r="J69" t="n">
-        <v>10.15983987014919</v>
+        <v>11.13636043027539</v>
       </c>
       <c r="K69" t="n">
-        <v>0.06353062497381266</v>
+        <v>0.07492251896098139</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.24633542354896</v>
+        <v>11.23588306039357</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1634570397154598</v>
+        <v>0.1655515927245841</v>
       </c>
       <c r="D70" t="n">
-        <v>10.30580633480625</v>
+        <v>10.24207144102904</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1744055578024743</v>
+        <v>0.1625767633685433</v>
       </c>
       <c r="F70" t="n">
-        <v>10.30580633480625</v>
+        <v>10.24207144102904</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1031778666462534</v>
+        <v>0.07431283853251351</v>
       </c>
       <c r="H70" t="n">
-        <v>10.24633542354896</v>
+        <v>11.23588306039357</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1697216752046189</v>
+        <v>0.174427285179305</v>
       </c>
       <c r="J70" t="n">
-        <v>10.24633542354896</v>
+        <v>11.23588306039357</v>
       </c>
       <c r="K70" t="n">
-        <v>0.06845141313268353</v>
+        <v>0.0791643829842148</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.33283097694873</v>
+        <v>11.33540569051176</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1640159391122041</v>
+        <v>0.1667673737024934</v>
       </c>
       <c r="D71" t="n">
-        <v>10.37831750244113</v>
+        <v>10.33225156612118</v>
       </c>
       <c r="E71" t="n">
-        <v>0.173130988302204</v>
+        <v>0.1639290171081809</v>
       </c>
       <c r="F71" t="n">
-        <v>10.37831750244113</v>
+        <v>10.33225156612118</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1083448521986259</v>
+        <v>0.07921588972731794</v>
       </c>
       <c r="H71" t="n">
-        <v>10.33283097694873</v>
+        <v>11.33540569051176</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1688857796193504</v>
+        <v>0.1753418822570684</v>
       </c>
       <c r="J71" t="n">
-        <v>10.33283097694873</v>
+        <v>11.33540569051176</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0734599566838198</v>
+        <v>0.08342056887142746</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.4193265303485</v>
+        <v>11.43492832062994</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1645013470009579</v>
+        <v>0.1685539205648802</v>
       </c>
       <c r="D72" t="n">
-        <v>10.45082867007602</v>
+        <v>10.42243169121332</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1717722457601198</v>
+        <v>0.1653120607925133</v>
       </c>
       <c r="F72" t="n">
-        <v>10.45082867007602</v>
+        <v>10.42243169121332</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1135159639710778</v>
+        <v>0.08415059500485898</v>
       </c>
       <c r="H72" t="n">
-        <v>10.4193265303485</v>
+        <v>11.43492832062994</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1678847397360851</v>
+        <v>0.176172851865496</v>
       </c>
       <c r="J72" t="n">
-        <v>10.4193265303485</v>
+        <v>11.43492832062994</v>
       </c>
       <c r="K72" t="n">
-        <v>0.07852996606442707</v>
+        <v>0.08767302268966039</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.50582208374826</v>
+        <v>11.53445095074813</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1648469860477604</v>
+        <v>0.1707834815822745</v>
       </c>
       <c r="D73" t="n">
-        <v>10.5233398377109</v>
+        <v>10.51261181630547</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1703529161255994</v>
+        <v>0.1667027455968188</v>
       </c>
       <c r="F73" t="n">
-        <v>10.5233398377109</v>
+        <v>10.51261181630547</v>
       </c>
       <c r="G73" t="n">
-        <v>0.118674132145198</v>
+        <v>0.08910808958487357</v>
       </c>
       <c r="H73" t="n">
-        <v>10.50582208374826</v>
+        <v>11.53445095074813</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1667986832985483</v>
+        <v>0.1769396152562596</v>
       </c>
       <c r="J73" t="n">
-        <v>10.50582208374826</v>
+        <v>11.53445095074813</v>
       </c>
       <c r="K73" t="n">
-        <v>0.08362245555454881</v>
+        <v>0.0918966823609404</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.59231763714803</v>
+        <v>11.63397358086631</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1650421016065882</v>
+        <v>0.1733706053020803</v>
       </c>
       <c r="D74" t="n">
-        <v>10.59585100534578</v>
+        <v>10.60279194139761</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1689140087275235</v>
+        <v>0.1680772204256266</v>
       </c>
       <c r="F74" t="n">
-        <v>10.59585100534578</v>
+        <v>10.60279194139761</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1237690977027264</v>
+        <v>0.09406821387280644</v>
       </c>
       <c r="H74" t="n">
-        <v>10.59231763714803</v>
+        <v>11.63397358086631</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1657084915110497</v>
+        <v>0.1776517671172772</v>
       </c>
       <c r="J74" t="n">
-        <v>10.59231763714803</v>
+        <v>11.63397358086631</v>
       </c>
       <c r="K74" t="n">
-        <v>0.08869959220135185</v>
+        <v>0.0960627133071133</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.6788131905478</v>
+        <v>11.73349621098449</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1650597814349917</v>
+        <v>0.1761214280772471</v>
       </c>
       <c r="D75" t="n">
-        <v>10.66836217298066</v>
+        <v>10.69297206648975</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1674934940590653</v>
+        <v>0.1694068791184242</v>
       </c>
       <c r="F75" t="n">
-        <v>10.66836217298066</v>
+        <v>10.69297206648975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1287825736514548</v>
+        <v>0.09900479590821157</v>
       </c>
       <c r="H75" t="n">
-        <v>10.6788131905478</v>
+        <v>11.73349621098449</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1646569787848856</v>
+        <v>0.1783246359673751</v>
       </c>
       <c r="J75" t="n">
-        <v>10.6788131905478</v>
+        <v>11.73349621098449</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0937300136726701</v>
+        <v>0.1001471688885886</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.76530874394757</v>
+        <v>11.83301884110268</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1649484064210849</v>
+        <v>0.1788485609821701</v>
       </c>
       <c r="D76" t="n">
-        <v>10.74087334061554</v>
+        <v>10.78315219158189</v>
       </c>
       <c r="E76" t="n">
-        <v>0.166109631422391</v>
+        <v>0.1706646523649488</v>
       </c>
       <c r="F76" t="n">
-        <v>10.74087334061554</v>
+        <v>10.78315219158189</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1336754567792685</v>
+        <v>0.1038946952642112</v>
       </c>
       <c r="H76" t="n">
-        <v>10.76530874394757</v>
+        <v>11.83301884110268</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1637275571844293</v>
+        <v>0.1789446818755773</v>
       </c>
       <c r="J76" t="n">
-        <v>10.76530874394757</v>
+        <v>11.83301884110268</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0986844144092221</v>
+        <v>0.1041122508873088</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.85180429734733</v>
+        <v>11.93254147122086</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1647668765846673</v>
+        <v>0.181322393776502</v>
       </c>
       <c r="D77" t="n">
-        <v>10.81338450825042</v>
+        <v>10.87333231667403</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1647947912481721</v>
+        <v>0.1718376205601985</v>
       </c>
       <c r="F77" t="n">
-        <v>10.81338450825042</v>
+        <v>10.87333231667403</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1384090553373572</v>
+        <v>0.1086962595671471</v>
       </c>
       <c r="H77" t="n">
-        <v>10.85180429734733</v>
+        <v>11.93254147122086</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1629662401946095</v>
+        <v>0.1794870947470055</v>
       </c>
       <c r="J77" t="n">
-        <v>10.85180429734733</v>
+        <v>11.93254147122086</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1035251130853357</v>
+        <v>0.1079380923607743</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.9382998507471</v>
+        <v>12.03206410133905</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1646028582326018</v>
+        <v>0.1834020440010599</v>
       </c>
       <c r="D78" t="n">
-        <v>10.8858956758853</v>
+        <v>10.96351244176617</v>
       </c>
       <c r="E78" t="n">
-        <v>0.163576683099401</v>
+        <v>0.1728968427156831</v>
       </c>
       <c r="F78" t="n">
-        <v>10.8858956758853</v>
+        <v>10.96351244176617</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1429166776236392</v>
+        <v>0.1133903594939026</v>
       </c>
       <c r="H78" t="n">
-        <v>10.9382998507471</v>
+        <v>12.03206410133905</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1624300301309724</v>
+        <v>0.1799099259064537</v>
       </c>
       <c r="J78" t="n">
-        <v>10.9382998507471</v>
+        <v>12.03206410133905</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1082198938726962</v>
+        <v>0.1115837866100253</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.02479540414687</v>
+        <v>12.13158673145723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1645474374461251</v>
+        <v>0.184939975721892</v>
       </c>
       <c r="D79" t="n">
-        <v>10.95840684352018</v>
+        <v>11.05369256685831</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1624857721823741</v>
+        <v>0.1738565212122399</v>
       </c>
       <c r="F79" t="n">
-        <v>10.95840684352018</v>
+        <v>11.05369256685831</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1471821233286706</v>
+        <v>0.1179307706794338</v>
       </c>
       <c r="H79" t="n">
-        <v>11.02479540414687</v>
+        <v>12.13158673145723</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1621655721930747</v>
+        <v>0.1801355669146764</v>
       </c>
       <c r="J79" t="n">
-        <v>11.02479540414687</v>
+        <v>12.13158673145723</v>
       </c>
       <c r="K79" t="n">
-        <v>0.1127588687711591</v>
+        <v>0.1150248765763792</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.11129095754664</v>
+        <v>12.23110936157542</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1647317638667463</v>
+        <v>0.1858189226458291</v>
       </c>
       <c r="D80" t="n">
-        <v>11.03091801115506</v>
+        <v>11.14387269195045</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1615613869418797</v>
+        <v>0.174695154838254</v>
       </c>
       <c r="F80" t="n">
-        <v>11.03091801115506</v>
+        <v>11.14387269195045</v>
       </c>
       <c r="G80" t="n">
-        <v>0.151152160256587</v>
+        <v>0.1222820247297041</v>
       </c>
       <c r="H80" t="n">
-        <v>11.11129095754664</v>
+        <v>12.23110936157542</v>
       </c>
       <c r="I80" t="n">
-        <v>0.16220724543048</v>
+        <v>0.1800942612960524</v>
       </c>
       <c r="J80" t="n">
-        <v>11.11129095754664</v>
+        <v>12.23110936157542</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1170996871361138</v>
+        <v>0.11824357579777</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.19778651094641</v>
+        <v>12.3306319916936</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1652175262103225</v>
+        <v>0.1860524574214071</v>
       </c>
       <c r="D81" t="n">
-        <v>11.10342917878994</v>
+        <v>11.2340528170426</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1608266952867476</v>
+        <v>0.1754427981942649</v>
       </c>
       <c r="F81" t="n">
-        <v>11.10342917878994</v>
+        <v>11.2340528170426</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1548056201518749</v>
+        <v>0.1263998970547847</v>
       </c>
       <c r="H81" t="n">
-        <v>11.19778651094641</v>
+        <v>12.3306319916936</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1625882599311843</v>
+        <v>0.1796731384851382</v>
       </c>
       <c r="J81" t="n">
-        <v>11.19778651094641</v>
+        <v>12.3306319916936</v>
       </c>
       <c r="K81" t="n">
-        <v>0.1212254641547788</v>
+        <v>0.1212134747248265</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.28428206434617</v>
+        <v>12.43015462181178</v>
       </c>
       <c r="C82" t="n">
-        <v>0.166071820315538</v>
+        <v>0.1855377399790403</v>
       </c>
       <c r="D82" t="n">
-        <v>11.17594034642482</v>
+        <v>11.32423294213474</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1603138540319761</v>
+        <v>0.1760957751537062</v>
       </c>
       <c r="F82" t="n">
-        <v>11.17594034642482</v>
+        <v>11.32423294213474</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1581053058607158</v>
+        <v>0.1302392026602997</v>
       </c>
       <c r="H82" t="n">
-        <v>11.28428206434617</v>
+        <v>12.43015462181178</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1633189199308108</v>
+        <v>0.1787745142173176</v>
       </c>
       <c r="J82" t="n">
-        <v>11.28428206434617</v>
+        <v>12.43015462181178</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1251276107879487</v>
+        <v>0.1239226370126651</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.37077761774594</v>
+        <v>12.52967725192997</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1673564994551251</v>
+        <v>0.1843354475346233</v>
       </c>
       <c r="D83" t="n">
-        <v>11.24845151405971</v>
+        <v>11.41441306722688</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1600413347911191</v>
+        <v>0.1766813761374843</v>
       </c>
       <c r="F83" t="n">
-        <v>11.24845151405971</v>
+        <v>11.41441306722688</v>
       </c>
       <c r="G83" t="n">
-        <v>0.161012174432812</v>
+        <v>0.1337705140378789</v>
       </c>
       <c r="H83" t="n">
-        <v>11.37077761774594</v>
+        <v>12.52967725192997</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1644013662486046</v>
+        <v>0.1773202952124929</v>
       </c>
       <c r="J83" t="n">
-        <v>11.37077761774594</v>
+        <v>12.52967725192997</v>
       </c>
       <c r="K83" t="n">
-        <v>0.1287831393812341</v>
+        <v>0.1263633483683669</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.45727317114571</v>
+        <v>12.62919988204816</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1690035596909218</v>
+        <v>0.1824396550322556</v>
       </c>
       <c r="D84" t="n">
-        <v>11.32096268169458</v>
+        <v>11.50459319231902</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1600462207058314</v>
+        <v>0.17720963284222</v>
       </c>
       <c r="F84" t="n">
-        <v>11.32096268169458</v>
+        <v>11.50459319231902</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1635498342334049</v>
+        <v>0.1369393220797998</v>
       </c>
       <c r="H84" t="n">
-        <v>11.45727317114571</v>
+        <v>12.62919988204816</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1658224658668987</v>
+        <v>0.1751727831336873</v>
       </c>
       <c r="J84" t="n">
-        <v>11.45727317114571</v>
+        <v>12.62919988204816</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1321904575053609</v>
+        <v>0.1285214965582875</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.54376872454548</v>
+        <v>12.72872251216634</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1710182793514778</v>
+        <v>0.1797779685120779</v>
       </c>
       <c r="D85" t="n">
-        <v>11.39347384932947</v>
+        <v>11.59477331741116</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1603447152059748</v>
+        <v>0.1776935587812572</v>
       </c>
       <c r="F85" t="n">
-        <v>11.39347384932947</v>
+        <v>11.59477331741116</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1656723599792652</v>
+        <v>0.1397535987721627</v>
       </c>
       <c r="H85" t="n">
-        <v>11.54376872454548</v>
+        <v>12.72872251216634</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1675413987251662</v>
+        <v>0.1722977940204112</v>
       </c>
       <c r="J85" t="n">
-        <v>11.54376872454548</v>
+        <v>12.72872251216634</v>
       </c>
       <c r="K85" t="n">
-        <v>0.1353425986345814</v>
+        <v>0.130414094947367</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.63026427794524</v>
+        <v>12.82824514228452</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1732710742597028</v>
+        <v>0.1764079742290536</v>
       </c>
       <c r="D86" t="n">
-        <v>11.46598501696435</v>
+        <v>11.6849534425033</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1609239844117277</v>
+        <v>0.1781374526278735</v>
       </c>
       <c r="F86" t="n">
-        <v>11.46598501696435</v>
+        <v>11.6849534425033</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1674110730964081</v>
+        <v>0.142160118260036</v>
       </c>
       <c r="H86" t="n">
-        <v>11.63026427794524</v>
+        <v>12.82824514228452</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1695182347632457</v>
+        <v>0.1686489817513244</v>
       </c>
       <c r="J86" t="n">
-        <v>11.63026427794524</v>
+        <v>12.82824514228452</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1382288681406499</v>
+        <v>0.1320179808605842</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.71675983134501</v>
+        <v>12.92776777240271</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1756554338432746</v>
+        <v>0.1722174313539631</v>
       </c>
       <c r="D87" t="n">
-        <v>11.53849618459923</v>
+        <v>11.77513356759544</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1617817915930266</v>
+        <v>0.178530852178322</v>
       </c>
       <c r="F87" t="n">
-        <v>11.53849618459923</v>
+        <v>11.77513356759544</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1687610319923654</v>
+        <v>0.1441773284628489</v>
       </c>
       <c r="H87" t="n">
-        <v>11.71675983134501</v>
+        <v>12.92776777240271</v>
       </c>
       <c r="I87" t="n">
-        <v>0.171681968496358</v>
+        <v>0.1641659405201041</v>
       </c>
       <c r="J87" t="n">
-        <v>11.71675983134501</v>
+        <v>12.92776777240271</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1408688206060073</v>
+        <v>0.1333758175464345</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.80325538474478</v>
+        <v>13.02729040252089</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1780413224242775</v>
+        <v>0.167193768293486</v>
       </c>
       <c r="D88" t="n">
-        <v>11.61100735223411</v>
+        <v>11.86531369268758</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1629254114360939</v>
+        <v>0.1788549721859427</v>
       </c>
       <c r="F88" t="n">
-        <v>11.61100735223411</v>
+        <v>11.86531369268758</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1697388903300059</v>
+        <v>0.1457939850364142</v>
       </c>
       <c r="H88" t="n">
-        <v>11.80325538474478</v>
+        <v>13.02729040252089</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1739631328227654</v>
+        <v>0.1588989314530477</v>
       </c>
       <c r="J88" t="n">
-        <v>11.80325538474478</v>
+        <v>13.02729040252089</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1432539193463999</v>
+        <v>0.1344979232411511</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.88975093814455</v>
+        <v>13.12681303263908</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1803063961387472</v>
+        <v>0.1613419937827422</v>
       </c>
       <c r="D89" t="n">
-        <v>11.68351851986899</v>
+        <v>11.95549381777973</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1643166608136709</v>
+        <v>0.1790718628710822</v>
       </c>
       <c r="F89" t="n">
-        <v>11.68351851986899</v>
+        <v>11.95549381777973</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1703894921731729</v>
+        <v>0.1470387028814085</v>
       </c>
       <c r="H89" t="n">
-        <v>11.88975093814455</v>
+        <v>13.12681303263908</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1762693950599961</v>
+        <v>0.1528748528846708</v>
       </c>
       <c r="J89" t="n">
-        <v>11.88975093814455</v>
+        <v>13.12681303263908</v>
       </c>
       <c r="K89" t="n">
-        <v>0.1453819296867584</v>
+        <v>0.1354152414726975</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.97624649154432</v>
+        <v>13.22633566275726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1822933185933696</v>
+        <v>0.154533445280183</v>
       </c>
       <c r="D90" t="n">
-        <v>11.75602968750387</v>
+        <v>12.04567394287187</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1659125082897237</v>
+        <v>0.179132235201323</v>
       </c>
       <c r="F90" t="n">
-        <v>11.75602968750387</v>
+        <v>12.04567394287187</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1707167848915653</v>
+        <v>0.1479412541391399</v>
       </c>
       <c r="H90" t="n">
-        <v>11.97624649154432</v>
+        <v>13.22633566275726</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1785239272123358</v>
+        <v>0.1461454099397326</v>
       </c>
       <c r="J90" t="n">
-        <v>11.97624649154432</v>
+        <v>13.22633566275726</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1472688003238855</v>
+        <v>0.1361583298140362</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.06274204494408</v>
+        <v>13.32585829287544</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1839363021047225</v>
+        <v>0.1469151389956605</v>
       </c>
       <c r="D91" t="n">
-        <v>11.82854085513875</v>
+        <v>12.13585406796401</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1676920155919642</v>
+        <v>0.1789704937804489</v>
       </c>
       <c r="F91" t="n">
-        <v>11.82854085513875</v>
+        <v>12.13585406796401</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1707583500085085</v>
+        <v>0.1485178082638423</v>
       </c>
       <c r="H91" t="n">
-        <v>12.06274204494408</v>
+        <v>13.32585829287544</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1806252192396167</v>
+        <v>0.1388226771714186</v>
       </c>
       <c r="J91" t="n">
-        <v>12.06274204494408</v>
+        <v>13.32585829287544</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1489204805402444</v>
+        <v>0.1367594048346406</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.14923759834385</v>
+        <v>13.42538092299363</v>
       </c>
       <c r="C92" t="n">
-        <v>0.185148014987108</v>
+        <v>0.1384922553061065</v>
       </c>
       <c r="D92" t="n">
-        <v>11.90105202277363</v>
+        <v>12.22603419305615</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1696007919164699</v>
+        <v>0.1785209111085523</v>
       </c>
       <c r="F92" t="n">
-        <v>11.90105202277363</v>
+        <v>12.22603419305615</v>
       </c>
       <c r="G92" t="n">
-        <v>0.170550957818319</v>
+        <v>0.1488308044303145</v>
       </c>
       <c r="H92" t="n">
-        <v>12.14923759834385</v>
+        <v>13.42538092299363</v>
       </c>
       <c r="I92" t="n">
-        <v>0.182496721431104</v>
+        <v>0.1310235743190175</v>
       </c>
       <c r="J92" t="n">
-        <v>12.14923759834385</v>
+        <v>13.42538092299363</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1503289538754376</v>
+        <v>0.1372735902537217</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.23573315174362</v>
+        <v>13.52490355311181</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1858440907569587</v>
+        <v>0.1293902540492488</v>
       </c>
       <c r="D93" t="n">
-        <v>11.97356319040851</v>
+        <v>12.31621431814829</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1715864647144802</v>
+        <v>0.1776902588934227</v>
       </c>
       <c r="F93" t="n">
-        <v>11.97356319040851</v>
+        <v>12.31621431814829</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1701426321831996</v>
+        <v>0.1489137416196762</v>
       </c>
       <c r="H93" t="n">
-        <v>12.23573315174362</v>
+        <v>13.52490355311181</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1840513943924692</v>
+        <v>0.1228616069815238</v>
       </c>
       <c r="J93" t="n">
-        <v>12.23573315174362</v>
+        <v>13.52490355311181</v>
       </c>
       <c r="K93" t="n">
-        <v>0.1514966084325196</v>
+        <v>0.1377200578301529</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.32222870514339</v>
+        <v>13.62442618323</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1860634441184968</v>
+        <v>0.1198107461647819</v>
       </c>
       <c r="D94" t="n">
-        <v>12.04607435804339</v>
+        <v>12.40639444324043</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1735984869286543</v>
+        <v>0.1764281452188379</v>
       </c>
       <c r="F94" t="n">
-        <v>12.04607435804339</v>
+        <v>12.40639444324043</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1695763663457332</v>
+        <v>0.1488177167710207</v>
       </c>
       <c r="H94" t="n">
-        <v>12.32222870514339</v>
+        <v>13.62442618323</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1852207327944349</v>
+        <v>0.114483912111138</v>
       </c>
       <c r="J94" t="n">
-        <v>12.32222870514339</v>
+        <v>13.62442618323</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1524440210020744</v>
+        <v>0.1381530667025495</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.40872425854316</v>
+        <v>13.72394881334818</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1857028141922484</v>
+        <v>0.1099138302293108</v>
       </c>
       <c r="D95" t="n">
-        <v>12.11858552567828</v>
+        <v>12.49657456833257</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1755875863109827</v>
+        <v>0.1746217179138112</v>
       </c>
       <c r="F95" t="n">
-        <v>12.11858552567828</v>
+        <v>12.49657456833257</v>
       </c>
       <c r="G95" t="n">
-        <v>0.168897692483495</v>
+        <v>0.148586607766007</v>
       </c>
       <c r="H95" t="n">
-        <v>12.40872425854316</v>
+        <v>13.72394881334818</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1859269375070564</v>
+        <v>0.1060336684431763</v>
       </c>
       <c r="J95" t="n">
-        <v>12.40872425854316</v>
+        <v>13.72394881334818</v>
       </c>
       <c r="K95" t="n">
-        <v>0.1531762564268049</v>
+        <v>0.1385703276187523</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.49521981194292</v>
+        <v>13.82347144346637</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1848346683144084</v>
+        <v>0.09996686558986463</v>
       </c>
       <c r="D96" t="n">
-        <v>12.19109669331316</v>
+        <v>12.58675469342471</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1775055072292889</v>
+        <v>0.1722625525843741</v>
       </c>
       <c r="F96" t="n">
-        <v>12.19109669331316</v>
+        <v>12.58675469342471</v>
       </c>
       <c r="G96" t="n">
-        <v>0.168140307817578</v>
+        <v>0.1482590627180951</v>
       </c>
       <c r="H96" t="n">
-        <v>12.49521981194292</v>
+        <v>13.82347144346637</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1861264195312262</v>
+        <v>0.0976340453984873</v>
       </c>
       <c r="J96" t="n">
-        <v>12.49521981194292</v>
+        <v>13.82347144346637</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1536828845394478</v>
+        <v>0.1390155864759583</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.58171536534269</v>
+        <v>13.92299407358455</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1834358407990118</v>
+        <v>0.09018304906678669</v>
       </c>
       <c r="D97" t="n">
-        <v>12.26360786094804</v>
+        <v>12.67693481851686</v>
       </c>
       <c r="E97" t="n">
-        <v>0.179293690418238</v>
+        <v>0.1692399467214855</v>
       </c>
       <c r="F97" t="n">
-        <v>12.26360786094804</v>
+        <v>12.67693481851686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1673509586124934</v>
+        <v>0.1478679308341827</v>
       </c>
       <c r="H97" t="n">
-        <v>12.58171536534269</v>
+        <v>13.92299407358455</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1857527268803377</v>
+        <v>0.08941667352949462</v>
       </c>
       <c r="J97" t="n">
-        <v>12.58171536534269</v>
+        <v>13.92299407358455</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1539940114990817</v>
+        <v>0.1394794337589424</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.66821091874246</v>
+        <v>14.02251670370273</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1814696557277026</v>
+        <v>0.08081396237242044</v>
       </c>
       <c r="D98" t="n">
-        <v>12.33611902858292</v>
+        <v>12.767114943609</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1808840660091754</v>
+        <v>0.1655897559133672</v>
       </c>
       <c r="F98" t="n">
-        <v>12.33611902858292</v>
+        <v>12.767114943609</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1665684120354409</v>
+        <v>0.1474403178732893</v>
       </c>
       <c r="H98" t="n">
-        <v>12.66821091874246</v>
+        <v>14.02251670370273</v>
       </c>
       <c r="I98" t="n">
-        <v>0.184762518707592</v>
+        <v>0.08147771395424806</v>
       </c>
       <c r="J98" t="n">
-        <v>12.66821091874246</v>
+        <v>14.02251670370273</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1541289863069867</v>
+        <v>0.1399761380699036</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.75470647214223</v>
+        <v>14.12203933382092</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1789959778330165</v>
+        <v>0.07199026729835011</v>
       </c>
       <c r="D99" t="n">
-        <v>12.4086301962178</v>
+        <v>12.85729506870114</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1822411734697655</v>
+        <v>0.1612464995789069</v>
       </c>
       <c r="F99" t="n">
-        <v>12.4086301962178</v>
+        <v>12.85729506870114</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1658301911018468</v>
+        <v>0.1470113297502231</v>
       </c>
       <c r="H99" t="n">
-        <v>12.75470647214223</v>
+        <v>14.12203933382092</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1831519094861868</v>
+        <v>0.07391003889991736</v>
       </c>
       <c r="J99" t="n">
-        <v>12.75470647214223</v>
+        <v>14.12203933382092</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1541122003449308</v>
+        <v>0.1404798197258731</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.841202025542</v>
+        <v>14.22156196393911</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1758930491421678</v>
+        <v>0.06392018516604145</v>
       </c>
       <c r="D100" t="n">
-        <v>12.48114136385268</v>
+        <v>12.94747519379328</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1833000226325732</v>
+        <v>0.1562764581348217</v>
       </c>
       <c r="F100" t="n">
-        <v>12.48114136385268</v>
+        <v>12.94747519379328</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1651696289669808</v>
+        <v>0.1465876987864414</v>
       </c>
       <c r="H100" t="n">
-        <v>12.841202025542</v>
+        <v>14.22156196393911</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1808508133569116</v>
+        <v>0.06677119758073959</v>
       </c>
       <c r="J100" t="n">
-        <v>12.841202025542</v>
+        <v>14.22156196393911</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1539551541561569</v>
+        <v>0.1409816492744845</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.92769757894176</v>
+        <v>14.32108459405729</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1722205812281551</v>
+        <v>0.05664120095910947</v>
       </c>
       <c r="D101" t="n">
-        <v>12.55365253148756</v>
+        <v>13.03765531888542</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1840145201428318</v>
+        <v>0.1506680046376117</v>
       </c>
       <c r="F101" t="n">
-        <v>12.55365253148756</v>
+        <v>13.03765531888542</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1646020015766249</v>
+        <v>0.1461883089608625</v>
       </c>
       <c r="H101" t="n">
-        <v>12.92769757894176</v>
+        <v>14.32108459405729</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1778952520707333</v>
+        <v>0.06010304226206337</v>
       </c>
       <c r="J101" t="n">
-        <v>12.92769757894176</v>
+        <v>14.32108459405729</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1536948768103866</v>
+        <v>0.1414420526789064</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.01419313234153</v>
+        <v>14.42060722417547</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1679202907500475</v>
+        <v>0.05016649499064171</v>
       </c>
       <c r="D102" t="n">
-        <v>12.62616369912244</v>
+        <v>13.12783544397756</v>
       </c>
       <c r="E102" t="n">
-        <v>0.184327791687349</v>
+        <v>0.1445193109411485</v>
       </c>
       <c r="F102" t="n">
-        <v>12.62616369912244</v>
+        <v>13.12783544397756</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1641458079018224</v>
+        <v>0.1458235239987781</v>
       </c>
       <c r="H102" t="n">
-        <v>13.01419313234153</v>
+        <v>14.42060722417547</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1742739458820755</v>
+        <v>0.0539298649760548</v>
       </c>
       <c r="J102" t="n">
-        <v>13.01419313234153</v>
+        <v>14.42060722417547</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1533759435706847</v>
+        <v>0.1418458171943874</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.1006886857413</v>
+        <v>14.52012985429366</v>
       </c>
       <c r="C103" t="n">
-        <v>0.162934763927241</v>
+        <v>0.04456098871248004</v>
       </c>
       <c r="D103" t="n">
-        <v>12.69867486675732</v>
+        <v>13.2180155690697</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1841499284129527</v>
+        <v>0.1378678405665213</v>
       </c>
       <c r="F103" t="n">
-        <v>12.69867486675732</v>
+        <v>13.2180155690697</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1638128310352652</v>
+        <v>0.1454887572729254</v>
       </c>
       <c r="H103" t="n">
-        <v>13.1006886857413</v>
+        <v>14.52012985429366</v>
       </c>
       <c r="I103" t="n">
-        <v>0.169982848293747</v>
+        <v>0.0482462156306256</v>
       </c>
       <c r="J103" t="n">
-        <v>13.1006886857413</v>
+        <v>14.52012985429366</v>
       </c>
       <c r="K103" t="n">
-        <v>0.1530029143844921</v>
+        <v>0.1421506489674057</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.18718423914107</v>
+        <v>14.61965248441184</v>
       </c>
       <c r="C104" t="n">
-        <v>0.157335658422654</v>
+        <v>0.0396650484759955</v>
       </c>
       <c r="D104" t="n">
-        <v>12.7711860343922</v>
+        <v>13.30819569416184</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1834615720502761</v>
+        <v>0.1308277509810055</v>
       </c>
       <c r="F104" t="n">
-        <v>12.7711860343922</v>
+        <v>13.30819569416184</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1636002029067794</v>
+        <v>0.145212377400496</v>
       </c>
       <c r="H104" t="n">
-        <v>13.18718423914107</v>
+        <v>14.61965248441184</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1650880424403705</v>
+        <v>0.0430536966533475</v>
       </c>
       <c r="J104" t="n">
-        <v>13.18718423914107</v>
+        <v>14.61965248441184</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1526148467937034</v>
+        <v>0.1423302476801027</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.27367979254084</v>
+        <v>14.71917511453003</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1510096634005011</v>
+        <v>0.03545750600769013</v>
       </c>
       <c r="D105" t="n">
-        <v>12.84369720202709</v>
+        <v>13.39837581925399</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1822204422507539</v>
+        <v>0.1234812234044157</v>
       </c>
       <c r="F105" t="n">
-        <v>12.84369720202709</v>
+        <v>13.39837581925399</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1635039616094501</v>
+        <v>0.144995072484091</v>
       </c>
       <c r="H105" t="n">
-        <v>13.27367979254084</v>
+        <v>14.71917511453003</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1595902444621245</v>
+        <v>0.03831359367123419</v>
       </c>
       <c r="J105" t="n">
-        <v>13.27367979254084</v>
+        <v>14.71917511453003</v>
       </c>
       <c r="K105" t="n">
-        <v>0.1522402893468931</v>
+        <v>0.1423423164454486</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.3601753459406</v>
+        <v>14.81869774464821</v>
       </c>
       <c r="C106" t="n">
-        <v>0.144090862531583</v>
+        <v>0.03181629733787224</v>
       </c>
       <c r="D106" t="n">
-        <v>12.91620836966197</v>
+        <v>13.48855594434613</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1803782904696754</v>
+        <v>0.1159431503806666</v>
       </c>
       <c r="F106" t="n">
-        <v>12.91620836966197</v>
+        <v>13.48855594434613</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1635162938369215</v>
+        <v>0.1448408972007433</v>
       </c>
       <c r="H106" t="n">
-        <v>13.3601753459406</v>
+        <v>14.81869774464821</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1535698722331974</v>
+        <v>0.0340034153314305</v>
       </c>
       <c r="J106" t="n">
-        <v>13.3601753459406</v>
+        <v>14.81869774464821</v>
       </c>
       <c r="K106" t="n">
-        <v>0.15188330050263</v>
+        <v>0.1421779799981532</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.44667089934037</v>
+        <v>14.9182203747664</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1366015162255663</v>
+        <v>0.02861439037908939</v>
       </c>
       <c r="D107" t="n">
-        <v>12.98871953729685</v>
+        <v>13.57873606943827</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1778943222480916</v>
+        <v>0.1083123094925862</v>
       </c>
       <c r="F107" t="n">
-        <v>12.98871953729685</v>
+        <v>13.57873606943827</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1636299949310666</v>
+        <v>0.1447531208535751</v>
       </c>
       <c r="H107" t="n">
-        <v>13.44667089934037</v>
+        <v>14.9182203747664</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1470646545963543</v>
+        <v>0.03009805349125426</v>
       </c>
       <c r="J107" t="n">
-        <v>13.44667089934037</v>
+        <v>14.9182203747664</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1515631307096165</v>
+        <v>0.1417939271403571</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.53316645274014</v>
+        <v>15.01774300488458</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1286097072612133</v>
+        <v>0.02580971665377113</v>
       </c>
       <c r="D108" t="n">
-        <v>13.06123070493173</v>
+        <v>13.66891619453041</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1747531844495007</v>
+        <v>0.100700019672456</v>
       </c>
       <c r="F108" t="n">
-        <v>13.06123070493173</v>
+        <v>13.66891619453041</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1638260971181064</v>
+        <v>0.1447439884101236</v>
       </c>
       <c r="H108" t="n">
-        <v>13.53316645274014</v>
+        <v>15.01774300488458</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1401491938817753</v>
+        <v>0.02654576054687204</v>
       </c>
       <c r="J108" t="n">
-        <v>13.53316645274014</v>
+        <v>15.01774300488458</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1512884601814774</v>
+        <v>0.1412072351436857</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.6196620061399</v>
+        <v>15.11726563500277</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1202782634871347</v>
+        <v>0.02326694129591463</v>
       </c>
       <c r="D109" t="n">
-        <v>13.13374187256661</v>
+        <v>13.75909631962255</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1709605698816082</v>
+        <v>0.09319015551697515</v>
       </c>
       <c r="F109" t="n">
-        <v>13.13374187256661</v>
+        <v>13.75909631962255</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1640865739017656</v>
+        <v>0.1448187503340693</v>
       </c>
       <c r="H109" t="n">
-        <v>13.6196620061399</v>
+        <v>15.11726563500277</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1328905470111042</v>
+        <v>0.02332460908167086</v>
       </c>
       <c r="J109" t="n">
-        <v>13.6196620061399</v>
+        <v>15.11726563500277</v>
       </c>
       <c r="K109" t="n">
-        <v>0.151054738258095</v>
+        <v>0.1403905155035372</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.70615755953967</v>
+        <v>15.21678826512095</v>
       </c>
       <c r="C110" t="n">
-        <v>0.111693539035762</v>
+        <v>0.02094167450408569</v>
       </c>
       <c r="D110" t="n">
-        <v>13.20625304020149</v>
+        <v>13.84927644471469</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1665586829568385</v>
+        <v>0.08588331288664655</v>
       </c>
       <c r="F110" t="n">
-        <v>13.20625304020149</v>
+        <v>13.84927644471469</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1644020664941208</v>
+        <v>0.1449744025801264</v>
       </c>
       <c r="H110" t="n">
-        <v>13.70615755953967</v>
+        <v>15.21678826512095</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1253554436030375</v>
+        <v>0.0204034967440164</v>
       </c>
       <c r="J110" t="n">
-        <v>13.70615755953967</v>
+        <v>15.21678826512095</v>
       </c>
       <c r="K110" t="n">
-        <v>0.1508579217357763</v>
+        <v>0.1393583585592163</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13.79265311293944</v>
+        <v>15.31631089523913</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1030379595608572</v>
+        <v>0.0187890205247901</v>
       </c>
       <c r="D111" t="n">
-        <v>13.27876420783637</v>
+        <v>13.93945656980683</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1615630888115831</v>
+        <v>0.07883458080604146</v>
       </c>
       <c r="F111" t="n">
-        <v>13.27876420783637</v>
+        <v>13.93945656980683</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1647615917972156</v>
+        <v>0.1452009345023141</v>
       </c>
       <c r="H111" t="n">
-        <v>13.79265311293944</v>
+        <v>15.31631089523913</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1176258663273105</v>
+        <v>0.0177525205741085</v>
       </c>
       <c r="J111" t="n">
-        <v>13.79265311293944</v>
+        <v>15.31631089523913</v>
       </c>
       <c r="K111" t="n">
-        <v>0.1506993724724237</v>
+        <v>0.138126671623907</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.87914866633921</v>
+        <v>15.41583352535732</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0944586906483441</v>
+        <v>0.01676885818404609</v>
       </c>
       <c r="D112" t="n">
-        <v>13.35127537547125</v>
+        <v>14.02963669489898</v>
       </c>
       <c r="E112" t="n">
-        <v>0.155972597463028</v>
+        <v>0.07211395177275592</v>
       </c>
       <c r="F112" t="n">
-        <v>13.35127537547125</v>
+        <v>14.02963669489898</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1651454749945688</v>
+        <v>0.1455090710233034</v>
       </c>
       <c r="H112" t="n">
-        <v>13.87914866633921</v>
+        <v>15.41583352535732</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1097627914284435</v>
+        <v>0.01535266564789877</v>
       </c>
       <c r="J112" t="n">
-        <v>13.87914866633921</v>
+        <v>15.41583352535732</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1505592748208681</v>
+        <v>0.1366957773742209</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.96564421973898</v>
+        <v>15.5153561554755</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08611400448447236</v>
+        <v>0.01488534562980235</v>
       </c>
       <c r="D113" t="n">
-        <v>13.42378654310613</v>
+        <v>14.11981681999112</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1499063355665908</v>
+        <v>0.06575621996929988</v>
       </c>
       <c r="F113" t="n">
-        <v>13.42378654310613</v>
+        <v>14.11981681999112</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1655480755756845</v>
+        <v>0.1458745385047707</v>
       </c>
       <c r="H113" t="n">
-        <v>13.96564421973898</v>
+        <v>15.5153561554755</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1018478160116007</v>
+        <v>0.01318013339974567</v>
       </c>
       <c r="J113" t="n">
-        <v>13.96564421973898</v>
+        <v>15.5153561554755</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1504344676272639</v>
+        <v>0.1351078041598838</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.05213977313874</v>
+        <v>15.61487878559369</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07809923835180135</v>
+        <v>0.01312640609758802</v>
       </c>
       <c r="D114" t="n">
-        <v>13.49629771074101</v>
+        <v>14.20999694508326</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143436500623517</v>
+        <v>0.05978946438105362</v>
       </c>
       <c r="F114" t="n">
-        <v>13.49629771074101</v>
+        <v>14.20999694508326</v>
       </c>
       <c r="G114" t="n">
-        <v>0.16596230123679</v>
+        <v>0.1462800080258201</v>
       </c>
       <c r="H114" t="n">
-        <v>14.05213977313874</v>
+        <v>15.61487878559369</v>
       </c>
       <c r="I114" t="n">
-        <v>0.09395244673432776</v>
+        <v>0.01122865259005935</v>
       </c>
       <c r="J114" t="n">
-        <v>14.05213977313874</v>
+        <v>15.61487878559369</v>
       </c>
       <c r="K114" t="n">
-        <v>0.150317035576885</v>
+        <v>0.1333657165476546</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14.13863532653851</v>
+        <v>15.71440141571187</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07060888113698996</v>
+        <v>0.01150075085912189</v>
       </c>
       <c r="D115" t="n">
-        <v>13.56880887837589</v>
+        <v>14.3001770701754</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1366179146558691</v>
+        <v>0.05422481302842948</v>
       </c>
       <c r="F115" t="n">
-        <v>13.56880887837589</v>
+        <v>14.3001770701754</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1663740871031172</v>
+        <v>0.1466969582502523</v>
       </c>
       <c r="H115" t="n">
-        <v>14.13863532653851</v>
+        <v>15.71440141571187</v>
       </c>
       <c r="I115" t="n">
-        <v>0.08614159868606337</v>
+        <v>0.009480614322180583</v>
       </c>
       <c r="J115" t="n">
-        <v>14.13863532653851</v>
+        <v>15.71440141571187</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1501845428704266</v>
+        <v>0.1315032126389589</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.22513087993828</v>
+        <v>15.81392404583006</v>
       </c>
       <c r="C116" t="n">
-        <v>0.06364042184929533</v>
+        <v>0.01003133227964291</v>
       </c>
       <c r="D116" t="n">
-        <v>13.64132004601078</v>
+        <v>14.39035719526754</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1295337460316182</v>
+        <v>0.04906398844290964</v>
       </c>
       <c r="F116" t="n">
-        <v>13.64132004601078</v>
+        <v>14.39035719526754</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1667890531873386</v>
+        <v>0.1470987329407678</v>
       </c>
       <c r="H116" t="n">
-        <v>14.22513087993828</v>
+        <v>15.81392404583006</v>
       </c>
       <c r="I116" t="n">
-        <v>0.07848580629945592</v>
+        <v>0.007924377505686423</v>
       </c>
       <c r="J116" t="n">
-        <v>14.22513087993828</v>
+        <v>15.81392404583006</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1500289302859918</v>
+        <v>0.1295368583709814</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>14.31162643333805</v>
+        <v>15.91344667594824</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0572852425752584</v>
+        <v>0.008710883903016598</v>
       </c>
       <c r="D117" t="n">
-        <v>13.71383121364565</v>
+        <v>14.48053732035968</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1222845820005518</v>
+        <v>0.04429386830769091</v>
       </c>
       <c r="F117" t="n">
-        <v>13.71383121364565</v>
+        <v>14.48053732035968</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1671879283863655</v>
+        <v>0.147449221221967</v>
       </c>
       <c r="H117" t="n">
-        <v>14.31162643333805</v>
+        <v>15.91344667594824</v>
       </c>
       <c r="I117" t="n">
-        <v>0.07105535400336241</v>
+        <v>0.006554346159914323</v>
       </c>
       <c r="J117" t="n">
-        <v>14.31162643333805</v>
+        <v>15.91344667594824</v>
       </c>
       <c r="K117" t="n">
-        <v>0.1498431234547037</v>
+        <v>0.1274868653707638</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.39812198673782</v>
+        <v>16.01296930606642</v>
       </c>
       <c r="C118" t="n">
-        <v>0.05158062938225896</v>
+        <v>0.007560407153320953</v>
       </c>
       <c r="D118" t="n">
-        <v>13.78634238128054</v>
+        <v>14.57071744545182</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1149546138627394</v>
+        <v>0.03990473806168383</v>
       </c>
       <c r="F118" t="n">
-        <v>13.78634238128054</v>
+        <v>14.57071744545182</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1675658662441222</v>
+        <v>0.1477069128439201</v>
       </c>
       <c r="H118" t="n">
-        <v>14.39812198673782</v>
+        <v>16.01296930606642</v>
       </c>
       <c r="I118" t="n">
-        <v>0.06389711317343615</v>
+        <v>0.005358996059196821</v>
       </c>
       <c r="J118" t="n">
-        <v>14.39812198673782</v>
+        <v>16.01296930606642</v>
       </c>
       <c r="K118" t="n">
-        <v>0.149605006021046</v>
+        <v>0.1253617844374669</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14.48461754013758</v>
+        <v>16.11249193618461</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04644761198152472</v>
+        <v>0.006570099119408215</v>
       </c>
       <c r="D119" t="n">
-        <v>13.85885354891542</v>
+        <v>14.66089757054396</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1076227005900463</v>
+        <v>0.03586888875648855</v>
       </c>
       <c r="F119" t="n">
-        <v>13.85885354891542</v>
+        <v>14.66089757054396</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1679043873006514</v>
+        <v>0.147825259103375</v>
       </c>
       <c r="H119" t="n">
-        <v>14.48461754013758</v>
+        <v>16.11249193618461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05707592843075097</v>
+        <v>0.004327260702017086</v>
       </c>
       <c r="J119" t="n">
-        <v>14.48461754013758</v>
+        <v>16.11249193618461</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1492911317539417</v>
+        <v>0.1231822186208587</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.57111309353735</v>
+        <v>16.21201456630279</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0419691824480133</v>
+        <v>0.005725187082861239</v>
       </c>
       <c r="D120" t="n">
-        <v>13.9313647165503</v>
+        <v>14.75107769563611</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1003471396448491</v>
+        <v>0.03216754528117113</v>
       </c>
       <c r="F120" t="n">
-        <v>13.9313647165503</v>
+        <v>14.75107769563611</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1681732161541456</v>
+        <v>0.147765156876373</v>
       </c>
       <c r="H120" t="n">
-        <v>14.57111309353735</v>
+        <v>16.21201456630279</v>
       </c>
       <c r="I120" t="n">
-        <v>0.05063853868922916</v>
+        <v>0.003446214042312084</v>
       </c>
       <c r="J120" t="n">
-        <v>14.57111309353735</v>
+        <v>16.21201456630279</v>
       </c>
       <c r="K120" t="n">
-        <v>0.1489032902270877</v>
+        <v>0.1209457957289612</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.65760864693712</v>
+        <v>16.31153719642098</v>
       </c>
       <c r="C121" t="n">
-        <v>0.03798990938236725</v>
+        <v>0.005025529401347504</v>
       </c>
       <c r="D121" t="n">
-        <v>14.00387588418518</v>
+        <v>14.84125782072825</v>
       </c>
       <c r="E121" t="n">
-        <v>0.09320781592250374</v>
+        <v>0.02877349650090806</v>
       </c>
       <c r="F121" t="n">
-        <v>14.00387588418518</v>
+        <v>14.84125782072825</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1683678239823138</v>
+        <v>0.1474694753482444</v>
       </c>
       <c r="H121" t="n">
-        <v>14.65760864693712</v>
+        <v>16.31153719642098</v>
       </c>
       <c r="I121" t="n">
-        <v>0.04460974693035986</v>
+        <v>0.002708820851545014</v>
       </c>
       <c r="J121" t="n">
-        <v>14.65760864693712</v>
+        <v>16.31153719642098</v>
       </c>
       <c r="K121" t="n">
-        <v>0.148399017146004</v>
+        <v>0.118674631530657</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>14.74410420033689</v>
+        <v>16.41105982653916</v>
       </c>
       <c r="C122" t="n">
-        <v>0.034491933076696</v>
+        <v>0.004430969640254193</v>
       </c>
       <c r="D122" t="n">
-        <v>14.07638705182006</v>
+        <v>14.93143794582039</v>
       </c>
       <c r="E122" t="n">
-        <v>0.08626628031121444</v>
+        <v>0.02565970510763141</v>
       </c>
       <c r="F122" t="n">
-        <v>14.07638705182006</v>
+        <v>14.93143794582039</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1684554707201895</v>
+        <v>0.1469112726700905</v>
       </c>
       <c r="H122" t="n">
-        <v>14.74410420033689</v>
+        <v>16.41105982653916</v>
       </c>
       <c r="I122" t="n">
-        <v>0.03904658633771884</v>
+        <v>0.002097365554338601</v>
       </c>
       <c r="J122" t="n">
-        <v>14.74410420033689</v>
+        <v>16.41105982653916</v>
       </c>
       <c r="K122" t="n">
-        <v>0.1477654979656773</v>
+        <v>0.1163507249882825</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>14.83059975373666</v>
+        <v>16.51058245665735</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03141377643712233</v>
+        <v>0.003926032580619849</v>
       </c>
       <c r="D123" t="n">
-        <v>14.14889821945494</v>
+        <v>15.02161807091253</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07954593996837792</v>
+        <v>0.02280862678424764</v>
       </c>
       <c r="F123" t="n">
-        <v>14.14889821945494</v>
+        <v>15.02161807091253</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1683942608989083</v>
+        <v>0.1460694708784961</v>
       </c>
       <c r="H123" t="n">
-        <v>14.83059975373666</v>
+        <v>16.51058245665735</v>
       </c>
       <c r="I123" t="n">
-        <v>0.03393688663891342</v>
+        <v>0.001597509169072504</v>
       </c>
       <c r="J123" t="n">
-        <v>14.83059975373666</v>
+        <v>16.51058245665735</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1469880055757005</v>
+        <v>0.1139819785968321</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>14.91709530713642</v>
+        <v>16.61010508677553</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02864888050661978</v>
+        <v>0.00348477283087645</v>
       </c>
       <c r="D124" t="n">
-        <v>14.22140938708982</v>
+        <v>15.11179819600467</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07309123636679642</v>
+        <v>0.02018982918249937</v>
       </c>
       <c r="F124" t="n">
-        <v>14.22140938708982</v>
+        <v>15.11179819600467</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1681262410638313</v>
+        <v>0.1448783963138205</v>
       </c>
       <c r="H124" t="n">
-        <v>14.91709530713642</v>
+        <v>16.61010508677553</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0293053705923416</v>
+        <v>0.001198614752256562</v>
       </c>
       <c r="J124" t="n">
-        <v>14.91709530713642</v>
+        <v>16.61010508677553</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1460430535900741</v>
+        <v>0.111566051183709</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.00359086053619</v>
+        <v>16.70962771689372</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02619170083318282</v>
+        <v>0.003084113114383274</v>
       </c>
       <c r="D125" t="n">
-        <v>14.2939205547247</v>
+        <v>15.20197832109681</v>
       </c>
       <c r="E125" t="n">
-        <v>0.06693278672016059</v>
+        <v>0.0177926867039333</v>
       </c>
       <c r="F125" t="n">
-        <v>14.2939205547247</v>
+        <v>15.20197832109681</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1676187113893726</v>
+        <v>0.1433470721706271</v>
       </c>
       <c r="H125" t="n">
-        <v>15.00359086053619</v>
+        <v>16.70962771689372</v>
       </c>
       <c r="I125" t="n">
-        <v>0.02514650982838528</v>
+        <v>0.0008866746943927085</v>
       </c>
       <c r="J125" t="n">
-        <v>15.00359086053619</v>
+        <v>16.70962771689372</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1449059478069629</v>
+        <v>0.1090806444003573</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.09008641393596</v>
+        <v>16.8091503470119</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02393661327567983</v>
+        <v>0.002712875507347388</v>
       </c>
       <c r="D126" t="n">
-        <v>14.36643172235958</v>
+        <v>15.29215844618895</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06108476614151916</v>
+        <v>0.0155943138588383</v>
       </c>
       <c r="F126" t="n">
-        <v>14.36643172235958</v>
+        <v>15.29215844618895</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1668368755028895</v>
+        <v>0.1414563204558908</v>
       </c>
       <c r="H126" t="n">
-        <v>15.09008641393596</v>
+        <v>16.8091503470119</v>
       </c>
       <c r="I126" t="n">
-        <v>0.02143740402547396</v>
+        <v>0.0006449361325919028</v>
       </c>
       <c r="J126" t="n">
-        <v>15.09008641393596</v>
+        <v>16.8091503470119</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1435681908115058</v>
+        <v>0.1065423921440879</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.17658196733573</v>
+        <v>16.90867297713008</v>
       </c>
       <c r="C127" t="n">
-        <v>0.02185849070200585</v>
+        <v>0.002358659874526522</v>
       </c>
       <c r="D127" t="n">
-        <v>14.43894288999446</v>
+        <v>15.38233857128109</v>
       </c>
       <c r="E127" t="n">
-        <v>0.05555950402181897</v>
+        <v>0.01358428554079674</v>
       </c>
       <c r="F127" t="n">
-        <v>14.43894288999446</v>
+        <v>15.38233857128109</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1657326388140999</v>
+        <v>0.1392024045895456</v>
       </c>
       <c r="H127" t="n">
-        <v>15.17658196733573</v>
+        <v>16.90867297713008</v>
       </c>
       <c r="I127" t="n">
-        <v>0.01816892022134681</v>
+        <v>0.0004625679847701745</v>
       </c>
       <c r="J127" t="n">
-        <v>15.17658196733573</v>
+        <v>16.90867297713008</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1420229280247324</v>
+        <v>0.1039098512701125</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.2630775207355</v>
+        <v>17.00819560724827</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0199233587266988</v>
+        <v>0.002019301432541844</v>
       </c>
       <c r="D128" t="n">
-        <v>14.51145405762935</v>
+        <v>15.47251869637324</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0503568535112623</v>
+        <v>0.01175122946724345</v>
       </c>
       <c r="F128" t="n">
-        <v>14.51145405762935</v>
+        <v>15.47251869637324</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1642617324321945</v>
+        <v>0.136588354537535</v>
       </c>
       <c r="H128" t="n">
-        <v>15.2630775207355</v>
+        <v>17.00819560724827</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01529826849717025</v>
+        <v>0.00033065938758121</v>
       </c>
       <c r="J128" t="n">
-        <v>15.2630775207355</v>
+        <v>17.00819560724827</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1402676294581825</v>
+        <v>0.1011974370619176</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.34957307413526</v>
+        <v>17.10771823736646</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01809445361460103</v>
+        <v>0.001697206359005506</v>
       </c>
       <c r="D129" t="n">
-        <v>14.58396522526423</v>
+        <v>15.56269882146538</v>
       </c>
       <c r="E129" t="n">
-        <v>0.04547964624518096</v>
+        <v>0.01008580122816155</v>
       </c>
       <c r="F129" t="n">
-        <v>14.58396522526423</v>
+        <v>15.56269882146538</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1623734859489582</v>
+        <v>0.1336202593238603</v>
       </c>
       <c r="H129" t="n">
-        <v>15.34957307413526</v>
+        <v>17.10771823736646</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01280931611970922</v>
+        <v>0.0002344064602875748</v>
       </c>
       <c r="J129" t="n">
-        <v>15.34957307413526</v>
+        <v>17.10771823736646</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1382838191827061</v>
+        <v>0.09839514302257196</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.43606862753503</v>
+        <v>17.20724086748464</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01637918592748926</v>
+        <v>0.001394867332113091</v>
       </c>
       <c r="D130" t="n">
-        <v>14.65647639289911</v>
+        <v>15.65287894655752</v>
       </c>
       <c r="E130" t="n">
-        <v>0.04093160527056956</v>
+        <v>0.00858218152829051</v>
       </c>
       <c r="F130" t="n">
-        <v>14.65647639289911</v>
+        <v>15.65287894655752</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1600516053275601</v>
+        <v>0.1303187476532781</v>
       </c>
       <c r="H130" t="n">
-        <v>15.43606862753503</v>
+        <v>17.20724086748464</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01065749538858189</v>
+        <v>0.0001681193672561329</v>
       </c>
       <c r="J130" t="n">
-        <v>15.43606862753503</v>
+        <v>17.20724086748464</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1360877254144628</v>
+        <v>0.09548689187149405</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.5225641809348</v>
+        <v>17.30676349760282</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01475221392574869</v>
+        <v>0.001120427391480248</v>
       </c>
       <c r="D131" t="n">
-        <v>14.72898756053399</v>
+        <v>15.74305907164966</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0366997625869657</v>
+        <v>0.007233384501350816</v>
       </c>
       <c r="F131" t="n">
-        <v>14.72898756053399</v>
+        <v>15.74305907164966</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1573006743721349</v>
+        <v>0.1267107838496085</v>
       </c>
       <c r="H131" t="n">
-        <v>15.5225641809348</v>
+        <v>17.30676349760282</v>
       </c>
       <c r="I131" t="n">
-        <v>0.008806585265038204</v>
+        <v>0.0001243814265640017</v>
       </c>
       <c r="J131" t="n">
-        <v>15.5225641809348</v>
+        <v>17.30676349760282</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1336902856356149</v>
+        <v>0.09249738490349893</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.60905973433457</v>
+        <v>17.40628612772101</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01322433944799324</v>
+        <v>0.0008770058281014694</v>
       </c>
       <c r="D132" t="n">
-        <v>14.80149872816887</v>
+        <v>15.8332391967418</v>
       </c>
       <c r="E132" t="n">
-        <v>0.03278135465652789</v>
+        <v>0.006033416452043599</v>
       </c>
       <c r="F132" t="n">
-        <v>14.80149872816887</v>
+        <v>15.8332391967418</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1541298246907818</v>
+        <v>0.1228154655884406</v>
       </c>
       <c r="H132" t="n">
-        <v>15.60905973433457</v>
+        <v>17.40628612772101</v>
       </c>
       <c r="I132" t="n">
-        <v>0.007236573339213222</v>
+        <v>9.533540783735434e-05</v>
       </c>
       <c r="J132" t="n">
-        <v>15.60905973433457</v>
+        <v>17.40628612772101</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1310795695374033</v>
+        <v>0.08940878742016993</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15.69555528773434</v>
+        <v>17.50580875783919</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01180132092094952</v>
+        <v>0.0006671425660890784</v>
       </c>
       <c r="D133" t="n">
-        <v>14.87400989580375</v>
+        <v>15.92341932183394</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0291637787972782</v>
+        <v>0.004977911053229492</v>
       </c>
       <c r="F133" t="n">
-        <v>14.87400989580375</v>
+        <v>15.92341932183394</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1505350359719687</v>
+        <v>0.1186525990813597</v>
       </c>
       <c r="H133" t="n">
-        <v>15.69555528773434</v>
+        <v>17.50580875783919</v>
       </c>
       <c r="I133" t="n">
-        <v>0.005897587463940633</v>
+        <v>7.597626827579373e-05</v>
       </c>
       <c r="J133" t="n">
-        <v>15.69555528773434</v>
+        <v>17.50580875783919</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1282733285624235</v>
+        <v>0.08625253322206641</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.7820508411341</v>
+        <v>17.60533138795738</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01047925586797036</v>
+        <v>0.0004953852845342075</v>
       </c>
       <c r="D134" t="n">
-        <v>14.94652106343863</v>
+        <v>16.01359944692608</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02584086370727393</v>
+        <v>0.004058130309721083</v>
       </c>
       <c r="F134" t="n">
-        <v>14.94652106343863</v>
+        <v>16.01359944692608</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1465406365878411</v>
+        <v>0.1142708687113012</v>
       </c>
       <c r="H134" t="n">
-        <v>15.7820508411341</v>
+        <v>17.60533138795738</v>
       </c>
       <c r="I134" t="n">
-        <v>0.004782945428854334</v>
+        <v>6.446128611184676e-05</v>
       </c>
       <c r="J134" t="n">
-        <v>15.7820508411341</v>
+        <v>17.60533138795738</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1252749016264225</v>
+        <v>0.08303681370452792</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.86854639453387</v>
+        <v>17.70485401807556</v>
       </c>
       <c r="C135" t="n">
-        <v>0.009288655246075622</v>
+        <v>0.0003561062275633857</v>
       </c>
       <c r="D135" t="n">
-        <v>15.01903223107351</v>
+        <v>16.10377957201823</v>
       </c>
       <c r="E135" t="n">
-        <v>0.02279230984254078</v>
+        <v>0.003268150999449152</v>
       </c>
       <c r="F135" t="n">
-        <v>15.01903223107351</v>
+        <v>16.10377957201823</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1421775058177581</v>
+        <v>0.1096986784526433</v>
       </c>
       <c r="H135" t="n">
-        <v>15.86854639453387</v>
+        <v>17.70485401807556</v>
       </c>
       <c r="I135" t="n">
-        <v>0.003846612725313186</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J135" t="n">
-        <v>15.86854639453387</v>
+        <v>17.70485401807556</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1220998723927375</v>
+        <v>0.07977934229238313</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.95504194793364</v>
+        <v>17.80437664819375</v>
       </c>
       <c r="C136" t="n">
-        <v>0.008210439443268099</v>
+        <v>0.0002492838375280324</v>
       </c>
       <c r="D136" t="n">
-        <v>15.09154339870839</v>
+        <v>16.19395969711037</v>
       </c>
       <c r="E136" t="n">
-        <v>0.02003059601033909</v>
+        <v>0.002597997846305757</v>
       </c>
       <c r="F136" t="n">
-        <v>15.09154339870839</v>
+        <v>16.19395969711037</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1375103083991233</v>
+        <v>0.1049721082788446</v>
       </c>
       <c r="H136" t="n">
-        <v>15.95504194793364</v>
+        <v>17.80437664819375</v>
       </c>
       <c r="I136" t="n">
-        <v>0.003078000521514938</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J136" t="n">
-        <v>15.95504194793364</v>
+        <v>17.80437664819375</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1187443924664077</v>
+        <v>0.07651087234102079</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>16.04153750133341</v>
+        <v>17.90389927831193</v>
       </c>
       <c r="C137" t="n">
-        <v>0.00725870625560102</v>
+        <v>0.0001695323800799487</v>
       </c>
       <c r="D137" t="n">
-        <v>15.16405456634327</v>
+        <v>16.2841398222025</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0175194947855125</v>
+        <v>0.002037391437838857</v>
       </c>
       <c r="F137" t="n">
-        <v>15.16405456634327</v>
+        <v>16.2841398222025</v>
       </c>
       <c r="G137" t="n">
-        <v>0.132590622733802</v>
+        <v>0.1001371618389492</v>
       </c>
       <c r="H137" t="n">
-        <v>16.04153750133341</v>
+        <v>17.90389927831193</v>
       </c>
       <c r="I137" t="n">
-        <v>0.002449219901932813</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J137" t="n">
-        <v>16.04153750133341</v>
+        <v>17.90389927831193</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1152087766500868</v>
+        <v>0.07323644483057543</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16.12803305473317</v>
+        <v>18.00342190843011</v>
       </c>
       <c r="C138" t="n">
-        <v>0.006429647505927654</v>
+        <v>0.0001110111253440174</v>
       </c>
       <c r="D138" t="n">
-        <v>15.23656573397815</v>
+        <v>16.37431994729465</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01524753149136972</v>
+        <v>0.001576343799371284</v>
       </c>
       <c r="F138" t="n">
-        <v>15.23656573397815</v>
+        <v>16.37431994729465</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1274608718605876</v>
+        <v>0.09521476112912593</v>
       </c>
       <c r="H138" t="n">
-        <v>16.12803305473317</v>
+        <v>18.00342190843011</v>
       </c>
       <c r="I138" t="n">
-        <v>0.001938818988995265</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J138" t="n">
-        <v>16.12803305473317</v>
+        <v>18.00342190843011</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1115093535263725</v>
+        <v>0.06998374176202503</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>16.21452860813294</v>
+        <v>18.1029445385483</v>
       </c>
       <c r="C139" t="n">
-        <v>0.005705270961931607</v>
+        <v>7.15518201833183e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>15.30907690161304</v>
+        <v>16.46450007238679</v>
       </c>
       <c r="E139" t="n">
-        <v>0.01321404726005266</v>
+        <v>0.001204709443245689</v>
       </c>
       <c r="F139" t="n">
-        <v>15.30907690161304</v>
+        <v>16.46450007238679</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1221732054856219</v>
+        <v>0.09026489916504253</v>
       </c>
       <c r="H139" t="n">
-        <v>16.21452860813294</v>
+        <v>18.1029445385483</v>
       </c>
       <c r="I139" t="n">
-        <v>0.00153270394962073</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J139" t="n">
-        <v>16.21452860813294</v>
+        <v>18.1029445385483</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1076536595831986</v>
+        <v>0.06676191506041512</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16.30102416153271</v>
+        <v>18.20246716866648</v>
       </c>
       <c r="C140" t="n">
-        <v>0.005094197859705614</v>
+        <v>4.429455955355057e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>15.38158806924791</v>
+        <v>16.55468019747893</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01140123072038389</v>
+        <v>0.0009075937870660891</v>
       </c>
       <c r="F140" t="n">
-        <v>15.38158806924791</v>
+        <v>16.55468019747893</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1167688704306879</v>
+        <v>0.08532234757497274</v>
       </c>
       <c r="H140" t="n">
-        <v>16.30102416153271</v>
+        <v>18.20246716866648</v>
       </c>
       <c r="I140" t="n">
-        <v>0.001208978492346998</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J140" t="n">
-        <v>16.30102416153271</v>
+        <v>18.20246716866648</v>
       </c>
       <c r="K140" t="n">
-        <v>0.103628925492037</v>
+        <v>0.06359235810601695</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>16.38751971493248</v>
+        <v>18.30198979878467</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004562402478667015</v>
+        <v>2.664703284849574e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>15.4540992368828</v>
+        <v>16.64486032257107</v>
       </c>
       <c r="E141" t="n">
-        <v>0.009788581416963147</v>
+        <v>0.0006747589997209106</v>
       </c>
       <c r="F141" t="n">
-        <v>15.4540992368828</v>
+        <v>16.64486032257107</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1112904267265169</v>
+        <v>0.08041248741524731</v>
       </c>
       <c r="H141" t="n">
-        <v>16.38751971493248</v>
+        <v>18.30198979878467</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0009552997841662632</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J141" t="n">
-        <v>16.38751971493248</v>
+        <v>18.30198979878467</v>
       </c>
       <c r="K141" t="n">
-        <v>0.09946671857117997</v>
+        <v>0.0604760707180956</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>16.47401526833224</v>
+        <v>18.40151242890285</v>
       </c>
       <c r="C142" t="n">
-        <v>0.00410303540541681</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>15.52661040451768</v>
+        <v>16.73504044766321</v>
       </c>
       <c r="E142" t="n">
-        <v>0.00836670347840289</v>
+        <v>0.0004936321467132579</v>
       </c>
       <c r="F142" t="n">
-        <v>15.52661040451768</v>
+        <v>16.73504044766321</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1057804350875284</v>
+        <v>0.07557936234037409</v>
       </c>
       <c r="H142" t="n">
-        <v>16.47401526833224</v>
+        <v>18.40151242890285</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0007578735430479023</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J142" t="n">
-        <v>16.47401526833224</v>
+        <v>18.40151242890285</v>
       </c>
       <c r="K142" t="n">
-        <v>0.09517258967017607</v>
+        <v>0.05741241565589691</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16.56051082173201</v>
+        <v>18.50103505902104</v>
       </c>
       <c r="C143" t="n">
-        <v>0.003698627134282127</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>15.59912157215256</v>
+        <v>16.82522057275536</v>
       </c>
       <c r="E143" t="n">
-        <v>0.007119450065027651</v>
+        <v>0.0003573692398891249</v>
       </c>
       <c r="F143" t="n">
-        <v>15.59912157215256</v>
+        <v>16.82522057275536</v>
       </c>
       <c r="G143" t="n">
-        <v>0.10026250396914</v>
+        <v>0.07083944643174005</v>
       </c>
       <c r="H143" t="n">
-        <v>16.56051082173201</v>
+        <v>18.50103505902104</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0006074797005362199</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J143" t="n">
-        <v>16.56051082173201</v>
+        <v>18.50103505902104</v>
       </c>
       <c r="K143" t="n">
-        <v>0.09075801267844022</v>
+        <v>0.05441501510937329</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16.64700637513178</v>
+        <v>18.60055768913922</v>
       </c>
       <c r="C144" t="n">
-        <v>0.003331061963074016</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>15.67163273978744</v>
+        <v>16.9154006978475</v>
       </c>
       <c r="E144" t="n">
-        <v>0.006030886669693538</v>
+        <v>0.0002542005687413781</v>
       </c>
       <c r="F144" t="n">
-        <v>15.67163273978744</v>
+        <v>16.9154006978475</v>
       </c>
       <c r="G144" t="n">
-        <v>0.09475946086621898</v>
+        <v>0.06623071858379453</v>
       </c>
       <c r="H144" t="n">
-        <v>16.64700637513178</v>
+        <v>18.60055768913922</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0004906419543734874</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J144" t="n">
-        <v>16.64700637513178</v>
+        <v>18.60055768913922</v>
       </c>
       <c r="K144" t="n">
-        <v>0.08624694712840489</v>
+        <v>0.0514735496543457</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>16.73350192853155</v>
+        <v>18.70008031925741</v>
       </c>
       <c r="C145" t="n">
-        <v>0.002993840060776435</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>15.74414390742232</v>
+        <v>17.00558082293963</v>
       </c>
       <c r="E145" t="n">
-        <v>0.005092267218125733</v>
+        <v>0.0001840653862617479</v>
       </c>
       <c r="F145" t="n">
-        <v>15.74414390742232</v>
+        <v>17.00558082293963</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0892907731204315</v>
+        <v>0.06176313601716762</v>
       </c>
       <c r="H145" t="n">
-        <v>16.73350192853155</v>
+        <v>18.70008031925741</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0003982907424311465</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J145" t="n">
-        <v>16.73350192853155</v>
+        <v>18.70008031925741</v>
       </c>
       <c r="K145" t="n">
-        <v>0.08166727860819947</v>
+        <v>0.04860117081323664</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>16.81999748193132</v>
+        <v>18.79960294937559</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002673243458201767</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>15.8166550750572</v>
+        <v>17.09576094803178</v>
       </c>
       <c r="E146" t="n">
-        <v>0.004287056149212983</v>
+        <v>0.000135490462270309</v>
       </c>
       <c r="F146" t="n">
-        <v>15.8166550750572</v>
+        <v>17.09576094803178</v>
       </c>
       <c r="G146" t="n">
-        <v>0.08387809438740285</v>
+        <v>0.05745611637446579</v>
       </c>
       <c r="H146" t="n">
-        <v>16.81999748193132</v>
+        <v>18.79960294937559</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0003229437709392081</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J146" t="n">
-        <v>16.81999748193132</v>
+        <v>18.79960294937559</v>
       </c>
       <c r="K146" t="n">
-        <v>0.07704163670100185</v>
+        <v>0.04577877193349941</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>16.90649303533108</v>
+        <v>18.89912557949377</v>
       </c>
       <c r="C147" t="n">
-        <v>0.002366202036575954</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>15.88916624269208</v>
+        <v>17.18594107312392</v>
       </c>
       <c r="E147" t="n">
-        <v>0.003597159419502277</v>
+        <v>0.0001027940098675183</v>
       </c>
       <c r="F147" t="n">
-        <v>15.88916624269208</v>
+        <v>17.18594107312392</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07853129016976966</v>
+        <v>0.05331889417773947</v>
       </c>
       <c r="H147" t="n">
-        <v>16.90649303533108</v>
+        <v>18.89912557949377</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0002621869135649513</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J147" t="n">
-        <v>16.90649303533108</v>
+        <v>18.89912557949377</v>
       </c>
       <c r="K147" t="n">
-        <v>0.07239593014343816</v>
+        <v>0.04301953699777265</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16.99298858873085</v>
+        <v>18.99864820961196</v>
       </c>
       <c r="C148" t="n">
-        <v>0.002070508074093818</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>15.96167741032696</v>
+        <v>17.27612119821606</v>
       </c>
       <c r="E148" t="n">
-        <v>0.003015291668481348</v>
+        <v>8.236516885052185e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>15.96167741032696</v>
+        <v>17.27612119821606</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0732665777559913</v>
+        <v>0.04935824919796086</v>
       </c>
       <c r="H148" t="n">
-        <v>16.99298858873085</v>
+        <v>18.99864820961196</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0002145998670066168</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J148" t="n">
-        <v>16.99298858873085</v>
+        <v>18.99864820961196</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06776574342604882</v>
+        <v>0.04031767229894097</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>17.07948414213062</v>
+        <v>19.09817083973014</v>
       </c>
       <c r="C149" t="n">
-        <v>0.001785968757595843</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>16.03418857796185</v>
+        <v>17.3663013233082</v>
       </c>
       <c r="E149" t="n">
-        <v>0.002526126389483562</v>
+        <v>6.85816238531642e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>16.03418857796185</v>
+        <v>17.3663013233082</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0680973400799495</v>
+        <v>0.04557943510688503</v>
       </c>
       <c r="H149" t="n">
-        <v>17.07948414213062</v>
+        <v>19.09817083973014</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0001768480685158721</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J149" t="n">
-        <v>17.07948414213062</v>
+        <v>19.09817083973014</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06318277136450469</v>
+        <v>0.03768071077128735</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>17.16597969553039</v>
+        <v>19.19769346984833</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001517776048113102</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>16.10669974559672</v>
+        <v>17.45648144840034</v>
       </c>
       <c r="E150" t="n">
-        <v>0.002119529189705818</v>
+        <v>6.258940925106402e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>16.10669974559672</v>
+        <v>17.45648144840034</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06304958315682327</v>
+        <v>0.04198901419386002</v>
       </c>
       <c r="H150" t="n">
-        <v>17.16597969553039</v>
+        <v>19.19769346984833</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0001471425475607673</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J150" t="n">
-        <v>17.16597969553039</v>
+        <v>19.19769346984833</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05867165311982268</v>
+        <v>0.03510781519060003</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>17.25247524893016</v>
+        <v>19.29721609996651</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001266464359732473</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>16.17921091323161</v>
+        <v>17.54666157349249</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001781460897268345</v>
+        <v>5.925890797075625e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>16.17921091323161</v>
+        <v>17.54666157349249</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05813386162753995</v>
+        <v>0.03857641771961042</v>
       </c>
       <c r="H151" t="n">
-        <v>17.25247524893016</v>
+        <v>19.29721609996651</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0001237356858310459</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J151" t="n">
-        <v>17.25247524893016</v>
+        <v>19.29721609996651</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0542649214304075</v>
+        <v>0.03260380935291882</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>17.33897080232992</v>
+        <v>19.3967387300847</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001037817125525159</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>16.25172208086649</v>
+        <v>17.63684169858463</v>
       </c>
       <c r="E152" t="n">
-        <v>0.001501128162824003</v>
+        <v>5.699972445011201e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>16.25172208086649</v>
+        <v>17.63684169858463</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05337732180221171</v>
+        <v>0.03535194344623131</v>
       </c>
       <c r="H152" t="n">
-        <v>17.33897080232992</v>
+        <v>19.3967387300847</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0001054139881582792</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J152" t="n">
-        <v>17.33897080232992</v>
+        <v>19.3967387300847</v>
       </c>
       <c r="K152" t="n">
-        <v>0.04998548773366031</v>
+        <v>0.03017550327749402</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>17.42546635572969</v>
+        <v>19.49626136020288</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0008340921688718974</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>16.32423324850137</v>
+        <v>17.72702182367677</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001272933416247445</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>16.32423324850137</v>
+        <v>17.72702182367677</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04879756823699109</v>
+        <v>0.03231419362354734</v>
       </c>
       <c r="H153" t="n">
-        <v>17.42546635572969</v>
+        <v>19.49626136020288</v>
       </c>
       <c r="I153" t="n">
-        <v>9.003542376413186e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J153" t="n">
-        <v>17.42546635572969</v>
+        <v>19.49626136020288</v>
       </c>
       <c r="K153" t="n">
-        <v>0.04586513128331567</v>
+        <v>0.02782717358585608</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>17.51196190912946</v>
+        <v>19.59578399032107</v>
       </c>
       <c r="C154" t="n">
-        <v>0.000655208361209667</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>16.39674441613625</v>
+        <v>17.81720194876891</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001084163658677289</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>16.39674441613625</v>
+        <v>17.81720194876891</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04442229679837138</v>
+        <v>0.02945228027242883</v>
       </c>
       <c r="H154" t="n">
-        <v>17.51196190912946</v>
+        <v>19.59578399032107</v>
       </c>
       <c r="I154" t="n">
-        <v>7.769962499997316e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J154" t="n">
-        <v>17.51196190912946</v>
+        <v>19.59578399032107</v>
       </c>
       <c r="K154" t="n">
-        <v>0.04191661210173048</v>
+        <v>0.02556872234689407</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>17.59845746252923</v>
+        <v>19.69530662043925</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0005061851151868433</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>16.46925558377113</v>
+        <v>17.90738207386105</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0009261697509427772</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>16.46925558377113</v>
+        <v>17.90738207386105</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04025700422842846</v>
+        <v>0.02677461776063213</v>
       </c>
       <c r="H155" t="n">
-        <v>17.59845746252923</v>
+        <v>19.69530662043925</v>
       </c>
       <c r="I155" t="n">
-        <v>6.804950329155704e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J155" t="n">
-        <v>17.59845746252923</v>
+        <v>19.69530662043925</v>
       </c>
       <c r="K155" t="n">
-        <v>0.03815250352324224</v>
+        <v>0.02340106489651119</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>17.684953015929</v>
+        <v>19.79482925055743</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0003812106508454593</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>16.54176675140601</v>
+        <v>17.99756219895319</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0007949438784665242</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>16.54176675140601</v>
+        <v>17.99756219895319</v>
       </c>
       <c r="G156" t="n">
-        <v>0.03631609600445362</v>
+        <v>0.02427239852989301</v>
       </c>
       <c r="H156" t="n">
-        <v>17.684953015929</v>
+        <v>19.79482925055743</v>
       </c>
       <c r="I156" t="n">
-        <v>6.064697913666266e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J156" t="n">
-        <v>17.684953015929</v>
+        <v>19.79482925055743</v>
       </c>
       <c r="K156" t="n">
-        <v>0.03459935599644499</v>
+        <v>0.02133729842760637</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>17.77144856932876</v>
+        <v>19.89435188067562</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0002814869839273963</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>16.61427791904089</v>
+        <v>18.08774232404533</v>
       </c>
       <c r="E157" t="n">
-        <v>0.000685277436286051</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>16.61427791904089</v>
+        <v>18.08774232404533</v>
       </c>
       <c r="G157" t="n">
-        <v>0.03261622133800492</v>
+        <v>0.02194695876342654</v>
       </c>
       <c r="H157" t="n">
-        <v>17.77144856932876</v>
+        <v>19.89435188067562</v>
       </c>
       <c r="I157" t="n">
-        <v>5.527304475895648e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J157" t="n">
-        <v>17.77144856932876</v>
+        <v>19.89435188067562</v>
       </c>
       <c r="K157" t="n">
-        <v>0.03126687382917943</v>
+        <v>0.01937069112498813</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>17.85794412272853</v>
+        <v>19.9938745107938</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0002034170646425626</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>16.68678908667577</v>
+        <v>18.17792244913748</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0005923013854272438</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>16.68678908667577</v>
+        <v>18.17792244913748</v>
       </c>
       <c r="G158" t="n">
-        <v>0.02916986329017189</v>
+        <v>0.01979110958096954</v>
       </c>
       <c r="H158" t="n">
-        <v>17.85794412272853</v>
+        <v>19.9938745107938</v>
       </c>
       <c r="I158" t="n">
-        <v>5.130159669128787e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J158" t="n">
-        <v>17.85794412272853</v>
+        <v>19.9938745107938</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0281422350211333</v>
+        <v>0.0175183997305055</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>17.9444396761283</v>
+        <v>20.09339714091199</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001428322677766175</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>16.75930025431065</v>
+        <v>18.26810257422962</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0005122856948998278</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>16.75930025431065</v>
+        <v>18.26810257422962</v>
       </c>
       <c r="G159" t="n">
-        <v>0.02599505993552773</v>
+        <v>0.01779916845390261</v>
       </c>
       <c r="H159" t="n">
-        <v>17.9444396761283</v>
+        <v>20.09339714091199</v>
       </c>
       <c r="I159" t="n">
-        <v>4.863614403294213e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J159" t="n">
-        <v>17.9444396761283</v>
+        <v>20.09339714091199</v>
       </c>
       <c r="K159" t="n">
-        <v>0.02523989099595957</v>
+        <v>0.01577934053585276</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>18.03093522952807</v>
+        <v>20.19291977103017</v>
       </c>
       <c r="C160" t="n">
-        <v>9.913962626274983e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>16.83181142194553</v>
+        <v>18.35828269932176</v>
       </c>
       <c r="E160" t="n">
-        <v>0.000442059886098993</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>16.83181142194553</v>
+        <v>18.35828269932176</v>
       </c>
       <c r="G160" t="n">
-        <v>0.02306797697690743</v>
+        <v>0.01596864205221843</v>
       </c>
       <c r="H160" t="n">
-        <v>18.03093522952807</v>
+        <v>20.19291977103017</v>
       </c>
       <c r="I160" t="n">
-        <v>4.675652887624399e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J160" t="n">
-        <v>18.03093522952807</v>
+        <v>20.19291977103017</v>
       </c>
       <c r="K160" t="n">
-        <v>0.02256720742769418</v>
+        <v>0.0141539683744658</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>18.11743078292784</v>
+        <v>20.29244240114836</v>
       </c>
       <c r="C161" t="n">
-        <v>6.663297995030788e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>16.90432258958042</v>
+        <v>18.4484628244139</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0003794467081248653</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>16.90432258958042</v>
+        <v>18.4484628244139</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02039130702759033</v>
+        <v>0.01428874112485258</v>
       </c>
       <c r="H161" t="n">
-        <v>18.11743078292784</v>
+        <v>20.29244240114836</v>
       </c>
       <c r="I161" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J161" t="n">
-        <v>18.11743078292784</v>
+        <v>20.29244240114836</v>
       </c>
       <c r="K161" t="n">
-        <v>0.02010901287658745</v>
+        <v>0.0126466857650717</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>18.2039263363276</v>
+        <v>20.39196503126654</v>
       </c>
       <c r="C162" t="n">
-        <v>4.399869833754227e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>16.9768337572153</v>
+        <v>18.53864294950604</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0003232288390504316</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>16.9768337572153</v>
+        <v>18.53864294950604</v>
       </c>
       <c r="G162" t="n">
-        <v>0.01796108765064868</v>
+        <v>0.01275083709377196</v>
       </c>
       <c r="H162" t="n">
-        <v>18.2039263363276</v>
+        <v>20.39196503126654</v>
       </c>
       <c r="I162" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J162" t="n">
-        <v>18.2039263363276</v>
+        <v>20.39196503126654</v>
       </c>
       <c r="K162" t="n">
-        <v>0.01786361219285381</v>
+        <v>0.01125336240157668</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>18.29042188972737</v>
+        <v>20.49148766138472</v>
       </c>
       <c r="C163" t="n">
-        <v>2.842446348267804e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>17.04934492485018</v>
+        <v>18.62882307459818</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0002736149932700433</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F163" t="n">
-        <v>17.04934492485018</v>
+        <v>18.62882307459818</v>
       </c>
       <c r="G163" t="n">
-        <v>0.01576511147976133</v>
+        <v>0.01135742002872406</v>
       </c>
       <c r="H163" t="n">
-        <v>18.29042188972737</v>
+        <v>20.49148766138472</v>
       </c>
       <c r="I163" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J163" t="n">
-        <v>18.29042188972737</v>
+        <v>20.49148766138472</v>
       </c>
       <c r="K163" t="n">
-        <v>0.01581998532791488</v>
+        <v>0.00998031225869345</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>18.37691744312714</v>
+        <v>20.59101029150291</v>
       </c>
       <c r="C164" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>17.12185609248506</v>
+        <v>18.71900319969032</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0002345313392576114</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F164" t="n">
-        <v>17.12185609248506</v>
+        <v>18.71900319969032</v>
       </c>
       <c r="G164" t="n">
-        <v>0.01379863675100869</v>
+        <v>0.01008490040254683</v>
       </c>
       <c r="H164" t="n">
-        <v>18.37691744312714</v>
+        <v>20.59101029150291</v>
       </c>
       <c r="I164" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J164" t="n">
-        <v>18.37691744312714</v>
+        <v>20.59101029150291</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01397631478693646</v>
+        <v>0.008824515397076181</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>18.46341299652691</v>
+        <v>20.69053292162109</v>
       </c>
       <c r="C165" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>17.19436726011994</v>
+        <v>18.80918332478246</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0001992593383090579</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>17.19436726011994</v>
+        <v>18.80918332478246</v>
       </c>
       <c r="G165" t="n">
-        <v>0.01204872907778239</v>
+        <v>0.008924554302708549</v>
       </c>
       <c r="H165" t="n">
-        <v>18.46341299652691</v>
+        <v>20.69053292162109</v>
       </c>
       <c r="I165" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J165" t="n">
-        <v>18.46341299652691</v>
+        <v>20.69053292162109</v>
       </c>
       <c r="K165" t="n">
-        <v>0.01231554355635376</v>
+        <v>0.007773117183848145</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>18.54990854992667</v>
+        <v>20.79005555173928</v>
       </c>
       <c r="C166" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>17.26687842775482</v>
+        <v>18.89936344987461</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0001692984819125756</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F166" t="n">
-        <v>17.26687842775482</v>
+        <v>18.89936344987461</v>
       </c>
       <c r="G166" t="n">
-        <v>0.01049448089611897</v>
+        <v>0.007877766065999032</v>
       </c>
       <c r="H166" t="n">
-        <v>18.54990854992667</v>
+        <v>20.79005555173928</v>
       </c>
       <c r="I166" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J166" t="n">
-        <v>18.54990854992667</v>
+        <v>20.79005555173928</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0108192541039429</v>
+        <v>0.006825620360411457</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>18.63640410332644</v>
+        <v>20.88957818185746</v>
       </c>
       <c r="C167" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>17.3393895953897</v>
+        <v>18.98954357496675</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0001426631569854722</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F167" t="n">
-        <v>17.3393895953897</v>
+        <v>18.98954357496675</v>
       </c>
       <c r="G167" t="n">
-        <v>0.009121085682609519</v>
+        <v>0.00692854508227798</v>
       </c>
       <c r="H167" t="n">
-        <v>18.63640410332644</v>
+        <v>20.88957818185746</v>
       </c>
       <c r="I167" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J167" t="n">
-        <v>18.63640410332644</v>
+        <v>20.88957818185746</v>
       </c>
       <c r="K167" t="n">
-        <v>0.009488258557750706</v>
+        <v>0.005975033448670484</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>18.72289965672621</v>
+        <v>20.98910081197565</v>
       </c>
       <c r="C168" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>17.41190076302458</v>
+        <v>19.07972370005889</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0001195675263923808</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F168" t="n">
-        <v>17.41190076302458</v>
+        <v>19.07972370005889</v>
       </c>
       <c r="G168" t="n">
-        <v>0.007908519484662868</v>
+        <v>0.006071426371016811</v>
       </c>
       <c r="H168" t="n">
-        <v>18.72289965672621</v>
+        <v>20.98910081197565</v>
       </c>
       <c r="I168" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J168" t="n">
-        <v>18.72289965672621</v>
+        <v>20.98910081197565</v>
       </c>
       <c r="K168" t="n">
-        <v>0.00830013170161128</v>
+        <v>0.005216859600284883</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>18.80939521012598</v>
+        <v>21.08862344209383</v>
       </c>
       <c r="C169" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>17.48441193065946</v>
+        <v>19.16990382515103</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0001003209965819907</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>17.48441193065946</v>
+        <v>19.16990382515103</v>
       </c>
       <c r="G169" t="n">
-        <v>0.006852652905351556</v>
+        <v>0.005299987518831624</v>
       </c>
       <c r="H169" t="n">
-        <v>18.80939521012598</v>
+        <v>21.08862344209383</v>
       </c>
       <c r="I169" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J169" t="n">
-        <v>18.80939521012598</v>
+        <v>21.08862344209383</v>
       </c>
       <c r="K169" t="n">
-        <v>0.007240359525409566</v>
+        <v>0.004548377304096876</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>18.89589076352575</v>
+        <v>21.18814607221201</v>
       </c>
       <c r="C170" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>17.55692309829434</v>
+        <v>19.26008395024317</v>
       </c>
       <c r="E170" t="n">
-        <v>8.429625819151689e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>17.55692309829434</v>
+        <v>19.26008395024317</v>
       </c>
       <c r="G170" t="n">
-        <v>0.005927917223960212</v>
+        <v>0.004607180350782552</v>
       </c>
       <c r="H170" t="n">
-        <v>18.89589076352575</v>
+        <v>21.18814607221201</v>
       </c>
       <c r="I170" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J170" t="n">
-        <v>18.89589076352575</v>
+        <v>21.18814607221201</v>
       </c>
       <c r="K170" t="n">
-        <v>0.006304080986224387</v>
+        <v>0.003953726025355598</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>18.98238631692551</v>
+        <v>21.2876687023302</v>
       </c>
       <c r="C171" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>17.62943426592922</v>
+        <v>19.35026407533531</v>
       </c>
       <c r="E171" t="n">
-        <v>7.121948930757236e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>17.62943426592922</v>
+        <v>19.35026407533531</v>
       </c>
       <c r="G171" t="n">
-        <v>0.005125466805482723</v>
+        <v>0.003989992867157132</v>
       </c>
       <c r="H171" t="n">
-        <v>18.98238631692551</v>
+        <v>21.2876687023302</v>
       </c>
       <c r="I171" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J171" t="n">
-        <v>18.98238631692551</v>
+        <v>21.2876687023302</v>
       </c>
       <c r="K171" t="n">
-        <v>0.005473805087241457</v>
+        <v>0.003428464329425425</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>19.06888187032528</v>
+        <v>21.38719133244838</v>
       </c>
       <c r="C172" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>17.70194543356411</v>
+        <v>19.44044420042745</v>
       </c>
       <c r="E172" t="n">
-        <v>6.076236142731814e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F172" t="n">
-        <v>17.70194543356411</v>
+        <v>19.44044420042745</v>
       </c>
       <c r="G172" t="n">
-        <v>0.004426144921814372</v>
+        <v>0.003440099667757452</v>
       </c>
       <c r="H172" t="n">
-        <v>19.06888187032528</v>
+        <v>21.38719133244838</v>
       </c>
       <c r="I172" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J172" t="n">
-        <v>19.06888187032528</v>
+        <v>21.38719133244838</v>
       </c>
       <c r="K172" t="n">
-        <v>0.004739434218652651</v>
+        <v>0.002968798287847614</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>19.15537742372505</v>
+        <v>21.48671396256657</v>
       </c>
       <c r="C173" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>17.77445660119898</v>
+        <v>19.53062432551959</v>
       </c>
       <c r="E173" t="n">
-        <v>5.269416210581612e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F173" t="n">
-        <v>17.77445660119898</v>
+        <v>19.53062432551959</v>
       </c>
       <c r="G173" t="n">
-        <v>0.003821582057595473</v>
+        <v>0.002951630901081534</v>
       </c>
       <c r="H173" t="n">
-        <v>19.15537742372505</v>
+        <v>21.48671396256657</v>
       </c>
       <c r="I173" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J173" t="n">
-        <v>19.15537742372505</v>
+        <v>21.48671396256657</v>
       </c>
       <c r="K173" t="n">
-        <v>0.004093322699916301</v>
+        <v>0.00256460230204609</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>19.24187297712482</v>
+        <v>21.58623659268475</v>
       </c>
       <c r="C174" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>17.84696776883387</v>
+        <v>19.62080445061174</v>
       </c>
       <c r="E174" t="n">
-        <v>4.662808514928457e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>17.84696776883387</v>
+        <v>19.62080445061174</v>
       </c>
       <c r="G174" t="n">
-        <v>0.003298938606940969</v>
+        <v>0.002523318352076398</v>
       </c>
       <c r="H174" t="n">
-        <v>19.24187297712482</v>
+        <v>21.58623659268475</v>
       </c>
       <c r="I174" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J174" t="n">
-        <v>19.24187297712482</v>
+        <v>21.58623659268475</v>
       </c>
       <c r="K174" t="n">
-        <v>0.003521891453202228</v>
+        <v>0.00221342875910208</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>19.32836853052459</v>
+        <v>21.68575922280294</v>
       </c>
       <c r="C175" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>17.91947893646875</v>
+        <v>19.71098457570388</v>
       </c>
       <c r="E175" t="n">
-        <v>4.205084658737534e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>17.91947893646875</v>
+        <v>19.71098457570388</v>
       </c>
       <c r="G175" t="n">
-        <v>0.002847814858211521</v>
+        <v>0.00214567503513932</v>
       </c>
       <c r="H175" t="n">
-        <v>19.32836853052459</v>
+        <v>21.68575922280294</v>
       </c>
       <c r="I175" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J175" t="n">
-        <v>19.32836853052459</v>
+        <v>21.68575922280294</v>
       </c>
       <c r="K175" t="n">
-        <v>0.003018428414631939</v>
+        <v>0.001906052844263311</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>19.41486408392435</v>
+        <v>21.78528185292112</v>
       </c>
       <c r="C176" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>17.99199010410363</v>
+        <v>19.80116470079601</v>
       </c>
       <c r="E176" t="n">
-        <v>3.866454208057155e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>17.99199010410363</v>
+        <v>19.80116470079601</v>
       </c>
       <c r="G176" t="n">
-        <v>0.002453834745318148</v>
+        <v>0.001816071474260035</v>
       </c>
       <c r="H176" t="n">
-        <v>19.41486408392435</v>
+        <v>21.78528185292112</v>
       </c>
       <c r="I176" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J176" t="n">
-        <v>19.41486408392435</v>
+        <v>21.78528185292112</v>
       </c>
       <c r="K176" t="n">
-        <v>0.002576364177091724</v>
+        <v>0.001637695047473723</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>19.50135963732412</v>
+        <v>21.88480448303931</v>
       </c>
       <c r="C177" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>18.06450127173851</v>
+        <v>19.89134482588816</v>
       </c>
       <c r="E177" t="n">
-        <v>3.620983159018685e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>18.06450127173851</v>
+        <v>19.89134482588816</v>
       </c>
       <c r="G177" t="n">
-        <v>0.002111688624990204</v>
+        <v>0.001531572414573843</v>
       </c>
       <c r="H177" t="n">
-        <v>19.50135963732412</v>
+        <v>21.88480448303931</v>
       </c>
       <c r="I177" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J177" t="n">
-        <v>19.50135963732412</v>
+        <v>21.88480448303931</v>
       </c>
       <c r="K177" t="n">
-        <v>0.002190656393924816</v>
+        <v>0.001404436999098312</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>19.58785519072389</v>
+        <v>21.98432711315749</v>
       </c>
       <c r="C178" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>18.13701243937339</v>
+        <v>19.9815249509803</v>
       </c>
       <c r="E178" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>18.13701243937339</v>
+        <v>19.9815249509803</v>
       </c>
       <c r="G178" t="n">
-        <v>0.001814819229277237</v>
+        <v>0.001286478250921151</v>
       </c>
       <c r="H178" t="n">
-        <v>19.58785519072389</v>
+        <v>21.98432711315749</v>
       </c>
       <c r="I178" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J178" t="n">
-        <v>19.58785519072389</v>
+        <v>21.98432711315749</v>
       </c>
       <c r="K178" t="n">
-        <v>0.001854056223344267</v>
+        <v>0.001200391106879154</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>19.67435074412366</v>
+        <v>22.08384974327567</v>
       </c>
       <c r="C179" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>18.20952360700827</v>
+        <v>20.07170507607244</v>
       </c>
       <c r="E179" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>18.20952360700827</v>
+        <v>20.07170507607244</v>
       </c>
       <c r="G179" t="n">
-        <v>0.001554776217826792</v>
+        <v>0.001076460375779149</v>
       </c>
       <c r="H179" t="n">
-        <v>19.67435074412366</v>
+        <v>22.08384974327567</v>
       </c>
       <c r="I179" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J179" t="n">
-        <v>19.67435074412366</v>
+        <v>22.08384974327567</v>
       </c>
       <c r="K179" t="n">
-        <v>0.001559967430787638</v>
+        <v>0.001023349006053222</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>19.76084629752343</v>
+        <v>22.18337237339386</v>
       </c>
       <c r="C180" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>18.28203477464315</v>
+        <v>20.16188520116458</v>
       </c>
       <c r="E180" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>18.28203477464315</v>
+        <v>20.16188520116458</v>
       </c>
       <c r="G180" t="n">
-        <v>0.001326906132804353</v>
+        <v>0.0008971595939213325</v>
       </c>
       <c r="H180" t="n">
-        <v>19.76084629752343</v>
+        <v>22.18337237339386</v>
       </c>
       <c r="I180" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J180" t="n">
-        <v>19.76084629752343</v>
+        <v>22.18337237339386</v>
       </c>
       <c r="K180" t="n">
-        <v>0.001305290079285405</v>
+        <v>0.0008700427661938853</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>19.84734185092319</v>
+        <v>22.28289500351205</v>
       </c>
       <c r="C181" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>18.35454594227803</v>
+        <v>20.25206532625673</v>
       </c>
       <c r="E181" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>18.35454594227803</v>
+        <v>20.25206532625673</v>
       </c>
       <c r="G181" t="n">
-        <v>0.001127518849540618</v>
+        <v>0.0007451189938499311</v>
       </c>
       <c r="H181" t="n">
-        <v>19.84734185092319</v>
+        <v>22.28289500351205</v>
       </c>
       <c r="I181" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J181" t="n">
-        <v>19.84734185092319</v>
+        <v>22.28289500351205</v>
       </c>
       <c r="K181" t="n">
-        <v>0.001089702069633132</v>
+        <v>0.000739750650067828</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>19.93383740432296</v>
+        <v>22.38241763363023</v>
       </c>
       <c r="C182" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>18.42705710991292</v>
+        <v>20.34224545134887</v>
       </c>
       <c r="E182" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>18.42705710991292</v>
+        <v>20.34224545134887</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0009550026446666848</v>
+        <v>0.0006170278360167371</v>
       </c>
       <c r="H182" t="n">
-        <v>19.93383740432296</v>
+        <v>22.38241763363023</v>
       </c>
       <c r="I182" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J182" t="n">
-        <v>19.93383740432296</v>
+        <v>22.38241763363023</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0009066496607672175</v>
+        <v>0.0006270442225714936</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>20.02033295772273</v>
+        <v>22.48194026374841</v>
       </c>
       <c r="C183" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>18.49956827754779</v>
+        <v>20.43242557644101</v>
       </c>
       <c r="E183" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>18.49956827754779</v>
+        <v>20.43242557644101</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0008043890206243329</v>
+        <v>0.0005100048783624774</v>
       </c>
       <c r="H183" t="n">
-        <v>20.02033295772273</v>
+        <v>22.48194026374841</v>
       </c>
       <c r="I183" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J183" t="n">
-        <v>20.02033295772273</v>
+        <v>22.48194026374841</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0007492053706575795</v>
+        <v>0.0005290381079386896</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20.1068285111225</v>
+        <v>22.5814628938666</v>
       </c>
       <c r="C184" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>18.57207944518268</v>
+        <v>20.52260570153314</v>
       </c>
       <c r="E184" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>18.57207944518268</v>
+        <v>20.52260570153314</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0006755330047559275</v>
+        <v>0.0004205015079361543</v>
       </c>
       <c r="H184" t="n">
-        <v>20.1068285111225</v>
+        <v>22.5814628938666</v>
       </c>
       <c r="I184" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J184" t="n">
-        <v>20.1068285111225</v>
+        <v>22.5814628938666</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0006150345386514564</v>
+        <v>0.0004443513539033195</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20.19332406452227</v>
+        <v>22.68098552398478</v>
       </c>
       <c r="C185" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>18.64459061281756</v>
+        <v>20.61278582662529</v>
       </c>
       <c r="E185" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>18.64459061281756</v>
+        <v>20.61278582662529</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0005647570002654179</v>
+        <v>0.0003466311709357002</v>
       </c>
       <c r="H185" t="n">
-        <v>20.19332406452227</v>
+        <v>22.68098552398478</v>
       </c>
       <c r="I185" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J185" t="n">
-        <v>20.19332406452227</v>
+        <v>22.68098552398478</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0005034189816845685</v>
+        <v>0.0003725483656228431</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20.27981961792203</v>
+        <v>22.78050815410297</v>
       </c>
       <c r="C186" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>18.71710178045244</v>
+        <v>20.70296595171743</v>
       </c>
       <c r="E186" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>18.71710178045244</v>
+        <v>20.70296595171743</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0004701162858149033</v>
+        <v>0.0002866798460732448</v>
       </c>
       <c r="H186" t="n">
-        <v>20.27981961792203</v>
+        <v>22.78050815410297</v>
       </c>
       <c r="I186" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J186" t="n">
-        <v>20.27981961792203</v>
+        <v>22.78050815410297</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0004094364043621847</v>
+        <v>0.0003112149672352632</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>20.3663151713218</v>
+        <v>22.88003078422115</v>
       </c>
       <c r="C187" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>18.78961294808732</v>
+        <v>20.79314607680957</v>
       </c>
       <c r="E187" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>18.78961294808732</v>
+        <v>20.79314607680957</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0003887676733852764</v>
+        <v>0.0002366192441349422</v>
       </c>
       <c r="H187" t="n">
-        <v>20.3663151713218</v>
+        <v>22.88003078422115</v>
       </c>
       <c r="I187" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J187" t="n">
-        <v>20.3663151713218</v>
+        <v>22.88003078422115</v>
       </c>
       <c r="K187" t="n">
-        <v>0.000332482366073504</v>
+        <v>0.0002589593931659758</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>20.45281072472157</v>
+        <v>22.97955341433934</v>
       </c>
       <c r="C188" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>18.8621241157222</v>
+        <v>20.88332620190171</v>
       </c>
       <c r="E188" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>18.8621241157222</v>
+        <v>20.88332620190171</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0003192563054896585</v>
+        <v>0.0001952925935271016</v>
       </c>
       <c r="H188" t="n">
-        <v>20.45281072472157</v>
+        <v>22.97955341433934</v>
       </c>
       <c r="I188" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J188" t="n">
-        <v>20.45281072472157</v>
+        <v>22.97955341433934</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0002686763613180283</v>
+        <v>0.0002147451489890636</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20.53930627812133</v>
+        <v>23.07907604445752</v>
       </c>
       <c r="C189" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>18.93463528335708</v>
+        <v>20.97350632699386</v>
       </c>
       <c r="E189" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>18.93463528335708</v>
+        <v>20.97350632699386</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0002606343204763519</v>
+        <v>0.0001622683081766394</v>
       </c>
       <c r="H189" t="n">
-        <v>20.53930627812133</v>
+        <v>23.07907604445752</v>
       </c>
       <c r="I189" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J189" t="n">
-        <v>20.53930627812133</v>
+        <v>23.07907604445752</v>
       </c>
       <c r="K189" t="n">
-        <v>0.000217136139029284</v>
+        <v>0.0001778314453816778</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20.6258018315211</v>
+        <v>23.1785986745757</v>
       </c>
       <c r="C190" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>19.00714645099196</v>
+        <v>21.063686452086</v>
       </c>
       <c r="E190" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>19.00714645099196</v>
+        <v>21.063686452086</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0002122650837599794</v>
+        <v>0.000135578672854552</v>
       </c>
       <c r="H190" t="n">
-        <v>20.6258018315211</v>
+        <v>23.1785986745757</v>
       </c>
       <c r="I190" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J190" t="n">
-        <v>20.6258018315211</v>
+        <v>23.1785986745757</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0001753986177658847</v>
+        <v>0.0001475870730171895</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>20.71229738492087</v>
+        <v>23.27812130469389</v>
       </c>
       <c r="C191" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>19.07965761862684</v>
+        <v>21.15386657717814</v>
       </c>
       <c r="E191" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>19.07965761862684</v>
+        <v>21.15386657717814</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0001723976115919883</v>
+        <v>0.0001137244871042767</v>
       </c>
       <c r="H191" t="n">
-        <v>20.71229738492087</v>
+        <v>23.27812130469389</v>
       </c>
       <c r="I191" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J191" t="n">
-        <v>20.71229738492087</v>
+        <v>23.27812130469389</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0001421971536797097</v>
+        <v>0.0001238258059772414</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>20.79879293832064</v>
+        <v>23.37764393481207</v>
       </c>
       <c r="C192" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>19.15216878626172</v>
+        <v>21.24404670227027</v>
       </c>
       <c r="E192" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>19.15216878626172</v>
+        <v>21.24404670227027</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0001397033035973782</v>
+        <v>9.613018090431071e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>20.79879293832064</v>
+        <v>23.37764393481207</v>
       </c>
       <c r="I192" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J192" t="n">
-        <v>20.79879293832064</v>
+        <v>23.37764393481207</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0001183985582523856</v>
+        <v>0.0001042111411687229</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>20.88528849172041</v>
+        <v>23.47716656493026</v>
       </c>
       <c r="C193" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>19.2246799538966</v>
+        <v>21.33422682736242</v>
       </c>
       <c r="E193" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>19.2246799538966</v>
+        <v>21.33422682736242</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0001132066963426876</v>
+        <v>8.205553436894116e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>20.88528849172041</v>
+        <v>23.47716656493026</v>
       </c>
       <c r="I193" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J193" t="n">
-        <v>20.88528849172041</v>
+        <v>23.47716656493026</v>
       </c>
       <c r="K193" t="n">
-        <v>9.99297638803066e-05</v>
+        <v>8.823206866304318e-05</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>20.97178404512017</v>
+        <v>23.57668919504844</v>
       </c>
       <c r="C194" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>19.29719112153148</v>
+        <v>21.42440695245456</v>
       </c>
       <c r="E194" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>19.29719112153148</v>
+        <v>21.42440695245456</v>
       </c>
       <c r="G194" t="n">
-        <v>9.202762408236234e-05</v>
+        <v>7.088938101835168e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>20.97178404512017</v>
+        <v>23.57668919504844</v>
       </c>
       <c r="I194" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J194" t="n">
-        <v>20.97178404512017</v>
+        <v>23.57668919504844</v>
       </c>
       <c r="K194" t="n">
-        <v>8.644747547656374e-05</v>
+        <v>7.543125710603873e-05</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>21.05827959851994</v>
+        <v>23.67621182516663</v>
       </c>
       <c r="C195" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>19.36970228916637</v>
+        <v>21.5145870775467</v>
       </c>
       <c r="E195" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>19.36970228916637</v>
+        <v>21.5145870775467</v>
       </c>
       <c r="G195" t="n">
-        <v>7.592769813445478e-05</v>
+        <v>6.211864160810454e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>21.05827959851994</v>
+        <v>23.67621182516663</v>
       </c>
       <c r="I195" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J195" t="n">
-        <v>21.05827959851994</v>
+        <v>23.67621182516663</v>
       </c>
       <c r="K195" t="n">
-        <v>7.579094364513345e-05</v>
+        <v>6.520214464450624e-05</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>21.14477515191971</v>
+        <v>23.77573445528481</v>
       </c>
       <c r="C196" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>19.44221345680125</v>
+        <v>21.60476720263884</v>
       </c>
       <c r="E196" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>19.44221345680125</v>
+        <v>21.60476720263884</v>
       </c>
       <c r="G196" t="n">
-        <v>6.517052528479125e-05</v>
+        <v>5.599888238284468e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>21.14477515191971</v>
+        <v>23.77573445528481</v>
       </c>
       <c r="I196" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J196" t="n">
-        <v>21.14477515191971</v>
+        <v>23.77573445528481</v>
       </c>
       <c r="K196" t="n">
-        <v>6.749133737880599e-05</v>
+        <v>5.72306135440575e-05</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>21.23127070531948</v>
+        <v>23.875257085403</v>
       </c>
       <c r="C197" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>19.51472462443613</v>
+        <v>21.69494732773099</v>
       </c>
       <c r="E197" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>19.51472462443613</v>
+        <v>21.69494732773099</v>
       </c>
       <c r="G197" t="n">
-        <v>5.673608960947881e-05</v>
+        <v>5.180172559865734e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>21.23127070531948</v>
+        <v>23.875257085403</v>
       </c>
       <c r="I197" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J197" t="n">
-        <v>21.23127070531948</v>
+        <v>23.875257085403</v>
       </c>
       <c r="K197" t="n">
-        <v>6.118512119882186e-05</v>
+        <v>5.10739231000597e-05</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>21.31776625871925</v>
+        <v>23.97477971552118</v>
       </c>
       <c r="C198" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>19.58723579207101</v>
+        <v>21.78512745282313</v>
       </c>
       <c r="E198" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>19.58723579207101</v>
+        <v>21.78512745282313</v>
       </c>
       <c r="G198" t="n">
-        <v>5.02156417551194e-05</v>
+        <v>4.859046180181842e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>21.31776625871925</v>
+        <v>23.97477971552118</v>
       </c>
       <c r="I198" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J198" t="n">
-        <v>21.31776625871925</v>
+        <v>23.97477971552118</v>
       </c>
       <c r="K198" t="n">
-        <v>5.657488354302523e-05</v>
+        <v>4.723794288475798e-05</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>21.40426181211901</v>
+        <v>24.07430234563936</v>
       </c>
       <c r="C199" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>19.65974695970589</v>
+        <v>21.87530757791527</v>
       </c>
       <c r="E199" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>19.65974695970589</v>
+        <v>21.87530757791527</v>
       </c>
       <c r="G199" t="n">
-        <v>4.524684444492383e-05</v>
+        <v>4.617283298779582e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>21.40426181211901</v>
+        <v>24.07430234563936</v>
       </c>
       <c r="I199" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J199" t="n">
-        <v>21.40426181211901</v>
+        <v>24.07430234563936</v>
       </c>
       <c r="K199" t="n">
-        <v>5.313293408815497e-05</v>
+        <v>4.42872247111921e-05</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>21.49075736551878</v>
+        <v>24.17382497575755</v>
       </c>
       <c r="C200" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>19.73225812734077</v>
+        <v>21.9654877030074</v>
       </c>
       <c r="E200" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>19.73225812734077</v>
+        <v>21.9654877030074</v>
       </c>
       <c r="G200" t="n">
-        <v>4.151573090689033e-05</v>
+        <v>4.43829684859722e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>21.49075736551878</v>
+        <v>24.17382497575755</v>
       </c>
       <c r="I200" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J200" t="n">
-        <v>21.49075736551878</v>
+        <v>24.17382497575755</v>
       </c>
       <c r="K200" t="n">
-        <v>5.060391112398302e-05</v>
+        <v>4.203829639436714e-05</v>
       </c>
     </row>
     <row r="201">
@@ -7455,34 +7455,34 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>21.57725291891855</v>
+        <v>24.27334760587573</v>
       </c>
       <c r="C201" t="n">
-        <v>2.508641526932162e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>19.80476929497565</v>
+        <v>22.05566782809955</v>
       </c>
       <c r="E201" t="n">
-        <v>3.610114155138808e-05</v>
+        <v>5.641360233017332e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>19.80476929497565</v>
+        <v>22.05566782809955</v>
       </c>
       <c r="G201" t="n">
-        <v>3.875601238956469e-05</v>
+        <v>4.308086735851769e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>21.57725291891855</v>
+        <v>24.27334760587573</v>
       </c>
       <c r="I201" t="n">
-        <v>4.664142217369698e-05</v>
+        <v>5.826922633811127e-05</v>
       </c>
       <c r="J201" t="n">
-        <v>21.57725291891855</v>
+        <v>24.27334760587573</v>
       </c>
       <c r="K201" t="n">
-        <v>4.877672800714202e-05</v>
+        <v>4.034865376606401e-05</v>
       </c>
     </row>
   </sheetData>
